--- a/data/fuel supply.xlsx
+++ b/data/fuel supply.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauri\Documents\Rpackages\china_co2\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauri\Documents\RPackages\china_co2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FF9F6D-0D86-4D07-9059-56717104D982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F186025F-9CE6-474D-B240-E5F665C9F3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="1520" windowWidth="27540" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output_ Natural Crude Oil_ YTD" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
             <sz val="9"/>
             <rFont val="宋体"/>
           </rPr>
-          <t>UEsDBBQACAgIAN2j8VYAAAAAAAAAAAAAAAABAAAAMM2Yb4/URBjA77WfoukbMblJpjPTmbbv4I5TAnIIK4khxExnnu41dNu1nSoXcokmEAgmcgnqG0zQiFFjVBCUPxFJ/CzsHn4Lp7u3x3K3d6yBO9k323mmM/P09/xtD84fmHltZmbmnAtnu0Vp5oo8SdtudM7VkMg6M0dk3q5lG9zIhdyddXVadTO5/HahG5HuHMp1qqRJi2YyrfZXyo1MWUMzeCvVcCCT+ZmhaGV2/ZBWajJY7A4W2ZNklg0kBzPoQG4qN0pkVtkdVFHnplzeGGuoVJmurxsekpTwQQ25Wt44Vdst0iSFciSpZKebwcYIMlAG9ODEw7B8JK2MG51yS6hMUcJR2QF3uK39q/PUuI0euhFqaZq/qqhL1VzU3UYy30hPb4jXjzEyzoabjZRv9qpG02NLR2g6YMrUwjt1zn3fTsr5tD1YQGbdGNppPrzZ9cIgxIQEI7Ui9wTGRGAqrATy4ZHuYm26tYmco9LUpcycubLW4CymWeS815of3Plu82x2P2x/jinyyh2YR+Ya9IbScNaUUpmWbI8DdyM267bLou4OJtbvPQPWCC7jKva0FDrBIvY4CfyQEF/RkCacqdC3p+TP6rhFt3VTbLAaKvr43sXe6g/uyuzz+IQ+9qi3iQ+hfJzPO7W0XmKWnSJxDnUan6wmKLJ7kEIvpGEg/Fj6klJfcEox9oD7MWUQ0KeQThZZ3YGd1XwhXgRjisWQ15KNdTgOqijtw506vYkgI+ME55bSXEbOBP0W0jytlkA3KjrHykLXylTOvtYSOHO11bRTve6cMDZlVMZmjqy5zrUs9Ru7jt2nRMQkDlCoKUEs1ATFHlFIaI059ZRPuHiK/vG9n3vXHkZPHl3rXfm2/8XNfy5eifqXVntXP+n/dn9f//e7vQu37Uzvr/NvRGt3fn3yyze9j/8cN8dY4O+KPfwd7XHw7Ctvj1gEEgBiFCcxRwwHBIVEeIhwjhPpKamU3GKP3sUHe2mP8XyyrT18Zj2HBdPFxygnvymrSYSdTppltsI5nb9vvyzMHgsTTVGMNSCWcA9JJjQimifct96GFdnZ7Xs3flw7/0f/5udTgX3waO2nT/tf3l+7dXsKvLacPQ/voMAxbwLezXVuz5gKwjH1Qo5EKARiVMdIEslRIqQADZ6HSbKF6eMH378SNG16oWwHmjZJKKiqNG83jnvMNiZFBnVnC1kzaPpeAk2JFQupThCAsImZBj6SmjAUU02xfSRNFN+W5mfXbfz3Ln/du/tdM56C6XRxPwVK3/NsbE2K+xHK4/IjZ66Qtla3CiN3v7OQYYIhDn1k2y6bUgUXNuqVQAQCkgimKRNqB5JrF25EvdVLFuAzHLuytF31IauYwAEP/D1JqtgTVDA6Ae7k7s1Sdiw+50jatsrArjYSQcwtCYWAUx8xP5EoxCFGwuc+KM4DAlv99ZmMakH3rlx+cmN1QPzh1f5XlzajJgHn4sVJP31deE5+ndROjNzY5tUiS3PYdf/1FMXAY4I8YJ71X2zzKqYMUQo4lgxsdg2389/+rYc2E7zU2j81vHAHePMp2LfOPXmx8AmhEoNESRwGFh/zbW8FBFGfaR1SwX0B2+K7fuf/wudPivIRvsNQFhXsge8FNMEJF7amJza0WSwFCnxpr8CnEChgId+2Ctkw/o/wLAOTdmChtNudAGNstW0+hqglUGdOyizVI7UzWZnFuMHLhoPWcrdRIGukUH44+PjSICjiaqEsOoOXCI9iz2NDoW3oS7PfbJG3iqEosKLGAF0o00Kv7941C3WWHRuI3JWVfwFQSwcINWZjEUEFAAAoEgAA</t>
+          <t>UEsDBBQACAgIAK1pD1cAAAAAAAAAAAAAAAABAAAAMM2Y7Y/URBjA77N/RdMvQnKTTGemM22/wR2nhJdDWEkMIWY683Svoduu7VS5kEs0gUAwkUtQv2CCRowao4KgvEQk8W9h9/C/cLovx8HtHWvgTvbLdp55e/p7XuaZHpjfP/PGzMzMORfOdovSzBV5krbd6JyrIZF1Zg7LvF3LNriRC7k76+q06mZy+UihG5HuHMx1qqRJi6YzrfZVyo1MWUPTeDvVsD+T+ZmhaGV2tEkrNRksdgeT7E4yywaSAxl0IDeVGyUyq+wKqqhzUy6vtzVUqkxH84abJCV8UEOultd31XaJNEmhHEsq2elmsN6CDJQBPdjxECwfTivjRqfcEipTlHBUdsAdLmv/6jw1bqOHboRamuavKupSNQ91t5HMN9LT6+LRNkbG2XCxsfLNWtW4e8PUMZoOmDK18E6dc9+3nXI+bQ8mkFk3hnaaDwe7XhiEmJCgUWvJ2gaOgypKbeedHikauScwJgJTYcdAPlTCXaxNtzaRc1SaupSZM1fWGpzFNIuc91rzg5HvNm9rd8D255gir9yBwWSuQa+/Bpw1pVSmJdsbTeBGbNZtl0XdHXSMxp4BaxaXcRV7WgqdYBF7nAR+SIivaEgTzlTo213yZ3XcpNvIOOv0hoo+vnext/qDuzL7ImKhjz3qvZAYoXwjsXdqaT3JLDtF4hzsNH5bTVBt57CFXkjDQPix9CWlvuCUYuwB92PKIKBPsZ0ssroD26v5UgQJxhSLaQgyspHg3FKay8iZoN9CmqfVEuhGRedYWehamcrZ01oCZ662mnaqN50TxqaVytjskjXPuZal3rvj2H1KREziAIWaEsRCTVDsEYWE1phTT/mEi6foH9/7uXftYfTk0bXelW/7X9z85+KVqH9ptXf1k/5v9/f0f7/bu3Db9vT+Or83Wrvz65Nfvul9/OdGc2xIDjtiD39bexw4+9rbIxaBBIAYxUnMEcMBQSERHiKc40R6SiolN9mjd/HBbtpjqgzjM+s5LJguPsZZ+i1ZTSLsdNIss6eg0/n79qvC7LEw0RTFWANiCfeQZEIjonnCfettWJHt3b5348e183/0b34+FdgHj9Z++rT/5f21W7enwGuPvGkSOGbeBLzPn3y7xlQQjqkXciRCIRCjOkaSSI4SIQVo8DxMkk1MHz/4/rWgadMLZdvQtElCQVWlebtx3GO2eCkyqDubyJpBYfgKaEqsWEh1ggCETcw08JHUhKGYaortK2mi+JY0P7tu4793+eve3e+a9hRMp4v7KVD6nmdja1Lcj1Eelx85c4W0Z3WrMHLnKwsZJhji0Ee2ELMpVXBho14JRCAgiWCaMqG2Ibl24UbUW71kAT7DsStLW3kftIoJHPDA35Wkij1BBaMT4E6u3ixlx+JzDqdtqwzsaCERxNySUAg49RHzE4lCHGIkfO6D4jwgsNlfn8moFnTvyuUnN1YHxB9e7X916XnUJOBcvDzpaa8UE8uJsRvbvFpkaQ477r+eohh4TJAHzLP+i21exZQhSgHHkoHNruFW/tu/9dBmgld69k8NL9wG3nwK9ma6KxcLnxAqMUiUxGFg8THf1lZAEPWZ1iEV3BewJb7rd/4vfP6kKB/jOwRlUcEu+F5AE5xwYc/0xIY2i6VAgS/tE/gUAgUs5FueQjaM/yM8y8CkHVgo7XInwBh72jYfTNQSqDMnZZbqsdqZrMxi3OBlw0ZrudsokDVSKD8cfKBpEBRxtVAWncElwqPY89hQaAv60uwzm+StYigKrKgxQBfKtNCj1btmoc6yYwORu7LyL1BLBwg3LV55OgUAAEwSAAA=</t>
         </r>
       </text>
     </comment>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -158,22 +158,25 @@
     <t>Time Period</t>
   </si>
   <si>
-    <t>1989-02:2023-06</t>
+    <t>1989-02:2023-07</t>
+  </si>
+  <si>
+    <t>1995-01:2023-07</t>
+  </si>
+  <si>
+    <t>2003-07:2023-07</t>
   </si>
   <si>
     <t>1995-01:2023-06</t>
   </si>
   <si>
-    <t>2003-07:2023-06</t>
-  </si>
-  <si>
-    <t>1995-01:2023-05</t>
+    <t>1989-01:2023-07</t>
   </si>
   <si>
     <t>1989-01:2023-06</t>
   </si>
   <si>
-    <t>1989-02:2023-05</t>
+    <t>1989-02:2023-06</t>
   </si>
   <si>
     <t>Source</t>
@@ -191,16 +194,19 @@
     <t>Update</t>
   </si>
   <si>
+    <t>2023-08-15</t>
+  </si>
+  <si>
+    <t>2023-08-08</t>
+  </si>
+  <si>
+    <t>2023-07-25</t>
+  </si>
+  <si>
     <t>2023-07-17</t>
   </si>
   <si>
-    <t>2023-07-13</t>
-  </si>
-  <si>
-    <t>2023-06-26</t>
-  </si>
-  <si>
-    <t>2023-06-16</t>
+    <t>2023-07-19</t>
   </si>
 </sst>
 </file>
@@ -208,10 +214,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy/mm"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm"/>
     <numFmt numFmtId="165" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -601,19 +607,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M422"/>
+  <dimension ref="A1:M423"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -654,7 +660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -695,7 +701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -736,7 +742,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -777,7 +783,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -803,104 +809,104 @@
         <v>37</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="I7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="I8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="K8" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="4">
         <v>32539</v>
       </c>
@@ -941,7 +947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13">
       <c r="A10" s="4">
         <v>32567</v>
       </c>
@@ -982,7 +988,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13">
       <c r="A11" s="4">
         <v>32598</v>
       </c>
@@ -1023,7 +1029,7 @@
         <v>100.8</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13">
       <c r="A12" s="4">
         <v>32628</v>
       </c>
@@ -1064,7 +1070,7 @@
         <v>132.6</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13">
       <c r="A13" s="4">
         <v>32659</v>
       </c>
@@ -1105,7 +1111,7 @@
         <v>164.5</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13">
       <c r="A14" s="4">
         <v>32689</v>
       </c>
@@ -1146,7 +1152,7 @@
         <v>198.1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13">
       <c r="A15" s="4">
         <v>32720</v>
       </c>
@@ -1187,7 +1193,7 @@
         <v>232.3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13">
       <c r="A16" s="4">
         <v>32751</v>
       </c>
@@ -1228,7 +1234,7 @@
         <v>269.2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13">
       <c r="A17" s="4">
         <v>32781</v>
       </c>
@@ -1269,7 +1275,7 @@
         <v>300.60000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13">
       <c r="A18" s="4">
         <v>32812</v>
       </c>
@@ -1310,7 +1316,7 @@
         <v>333.9</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13">
       <c r="A19" s="4">
         <v>32842</v>
       </c>
@@ -1351,7 +1357,7 @@
         <v>368.3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13">
       <c r="A20" s="4">
         <v>32873</v>
       </c>
@@ -1392,7 +1398,7 @@
         <v>395.2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13">
       <c r="A21" s="4">
         <v>32904</v>
       </c>
@@ -1433,7 +1439,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13">
       <c r="A22" s="4">
         <v>32932</v>
       </c>
@@ -1474,7 +1480,7 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13">
       <c r="A23" s="4">
         <v>32963</v>
       </c>
@@ -1515,7 +1521,7 @@
         <v>92.2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13">
       <c r="A24" s="4">
         <v>32993</v>
       </c>
@@ -1556,7 +1562,7 @@
         <v>128.69999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13">
       <c r="A25" s="4">
         <v>33024</v>
       </c>
@@ -1597,7 +1603,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13">
       <c r="A26" s="4">
         <v>33054</v>
       </c>
@@ -1638,7 +1644,7 @@
         <v>202.8</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13">
       <c r="A27" s="4">
         <v>33085</v>
       </c>
@@ -1679,7 +1685,7 @@
         <v>242.2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13">
       <c r="A28" s="4">
         <v>33116</v>
       </c>
@@ -1720,7 +1726,7 @@
         <v>276.5</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13">
       <c r="A29" s="4">
         <v>33146</v>
       </c>
@@ -1761,7 +1767,7 @@
         <v>306.2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13">
       <c r="A30" s="4">
         <v>33177</v>
       </c>
@@ -1802,7 +1808,7 @@
         <v>336.3</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13">
       <c r="A31" s="4">
         <v>33207</v>
       </c>
@@ -1843,7 +1849,7 @@
         <v>362.2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13">
       <c r="A32" s="4">
         <v>33238</v>
       </c>
@@ -1884,7 +1890,7 @@
         <v>384.5</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13">
       <c r="A33" s="4">
         <v>33269</v>
       </c>
@@ -1925,7 +1931,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13">
       <c r="A34" s="4">
         <v>33297</v>
       </c>
@@ -1966,7 +1972,7 @@
         <v>61.1</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13">
       <c r="A35" s="4">
         <v>33328</v>
       </c>
@@ -2007,7 +2013,7 @@
         <v>96.2</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13">
       <c r="A36" s="4">
         <v>33358</v>
       </c>
@@ -2048,7 +2054,7 @@
         <v>126.4</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13">
       <c r="A37" s="4">
         <v>33389</v>
       </c>
@@ -2089,7 +2095,7 @@
         <v>158.80000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13">
       <c r="A38" s="4">
         <v>33419</v>
       </c>
@@ -2130,7 +2136,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13">
       <c r="A39" s="4">
         <v>33450</v>
       </c>
@@ -2171,7 +2177,7 @@
         <v>231.8</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13">
       <c r="A40" s="4">
         <v>33481</v>
       </c>
@@ -2212,7 +2218,7 @@
         <v>267.60000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13">
       <c r="A41" s="4">
         <v>33511</v>
       </c>
@@ -2253,7 +2259,7 @@
         <v>301.5</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13">
       <c r="A42" s="4">
         <v>33542</v>
       </c>
@@ -2294,7 +2300,7 @@
         <v>339.4</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13">
       <c r="A43" s="4">
         <v>33572</v>
       </c>
@@ -2335,7 +2341,7 @@
         <v>375.1</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13">
       <c r="A44" s="4">
         <v>33603</v>
       </c>
@@ -2376,7 +2382,7 @@
         <v>398.41</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13">
       <c r="A45" s="4">
         <v>33634</v>
       </c>
@@ -2417,7 +2423,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13">
       <c r="A46" s="4">
         <v>33663</v>
       </c>
@@ -2458,7 +2464,7 @@
         <v>62.8</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13">
       <c r="A47" s="4">
         <v>33694</v>
       </c>
@@ -2499,7 +2505,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13">
       <c r="A48" s="4">
         <v>33724</v>
       </c>
@@ -2540,7 +2546,7 @@
         <v>147.5</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13">
       <c r="A49" s="4">
         <v>33755</v>
       </c>
@@ -2581,7 +2587,7 @@
         <v>177.8</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13">
       <c r="A50" s="4">
         <v>33785</v>
       </c>
@@ -2622,7 +2628,7 @@
         <v>209.5</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13">
       <c r="A51" s="4">
         <v>33816</v>
       </c>
@@ -2663,7 +2669,7 @@
         <v>243.2</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13">
       <c r="A52" s="4">
         <v>33847</v>
       </c>
@@ -2704,7 +2710,7 @@
         <v>279.5</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13">
       <c r="A53" s="4">
         <v>33877</v>
       </c>
@@ -2745,7 +2751,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13">
       <c r="A54" s="4">
         <v>33908</v>
       </c>
@@ -2786,7 +2792,7 @@
         <v>341.5</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13">
       <c r="A55" s="4">
         <v>33938</v>
       </c>
@@ -2827,7 +2833,7 @@
         <v>371.5</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13">
       <c r="A56" s="4">
         <v>33969</v>
       </c>
@@ -2868,7 +2874,7 @@
         <v>395.9</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13">
       <c r="A57" s="4">
         <v>34000</v>
       </c>
@@ -2909,7 +2915,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13">
       <c r="A58" s="4">
         <v>34028</v>
       </c>
@@ -2950,7 +2956,7 @@
         <v>59.6</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13">
       <c r="A59" s="4">
         <v>34059</v>
       </c>
@@ -2991,7 +2997,7 @@
         <v>89.3</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13">
       <c r="A60" s="4">
         <v>34089</v>
       </c>
@@ -3032,7 +3038,7 @@
         <v>117.4</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13">
       <c r="A61" s="4">
         <v>34120</v>
       </c>
@@ -3073,7 +3079,7 @@
         <v>151.1</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13">
       <c r="A62" s="4">
         <v>34150</v>
       </c>
@@ -3114,7 +3120,7 @@
         <v>181.8</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13">
       <c r="A63" s="4">
         <v>34181</v>
       </c>
@@ -3155,7 +3161,7 @@
         <v>214.5</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13">
       <c r="A64" s="4">
         <v>34212</v>
       </c>
@@ -3196,7 +3202,7 @@
         <v>244.8</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13">
       <c r="A65" s="4">
         <v>34242</v>
       </c>
@@ -3237,7 +3243,7 @@
         <v>274.2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13">
       <c r="A66" s="4">
         <v>34273</v>
       </c>
@@ -3278,7 +3284,7 @@
         <v>308.89999999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13">
       <c r="A67" s="4">
         <v>34303</v>
       </c>
@@ -3319,7 +3325,7 @@
         <v>343.6</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13">
       <c r="A68" s="4">
         <v>34334</v>
       </c>
@@ -3360,7 +3366,7 @@
         <v>373.3</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13">
       <c r="A69" s="4">
         <v>34365</v>
       </c>
@@ -3401,7 +3407,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13">
       <c r="A70" s="4">
         <v>34393</v>
       </c>
@@ -3442,7 +3448,7 @@
         <v>71.89</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13">
       <c r="A71" s="4">
         <v>34424</v>
       </c>
@@ -3483,7 +3489,7 @@
         <v>115.41</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13">
       <c r="A72" s="4">
         <v>34454</v>
       </c>
@@ -3524,7 +3530,7 @@
         <v>153.88999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13">
       <c r="A73" s="4">
         <v>34485</v>
       </c>
@@ -3565,7 +3571,7 @@
         <v>190.93</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13">
       <c r="A74" s="4">
         <v>34515</v>
       </c>
@@ -3606,7 +3612,7 @@
         <v>228.5</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13">
       <c r="A75" s="4">
         <v>34546</v>
       </c>
@@ -3647,7 +3653,7 @@
         <v>267.49</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13">
       <c r="A76" s="4">
         <v>34577</v>
       </c>
@@ -3688,7 +3694,7 @@
         <v>305.77</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13">
       <c r="A77" s="4">
         <v>34607</v>
       </c>
@@ -3729,7 +3735,7 @@
         <v>334.77</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13">
       <c r="A78" s="4">
         <v>34638</v>
       </c>
@@ -3770,7 +3776,7 @@
         <v>368.17</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13">
       <c r="A79" s="4">
         <v>34668</v>
       </c>
@@ -3811,7 +3817,7 @@
         <v>400.64</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13">
       <c r="A80" s="4">
         <v>34699</v>
       </c>
@@ -3852,7 +3858,7 @@
         <v>433.42</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13">
       <c r="A81" s="4">
         <v>34730</v>
       </c>
@@ -3893,7 +3899,7 @@
         <v>35.24</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13">
       <c r="A82" s="4">
         <v>34758</v>
       </c>
@@ -3901,7 +3907,7 @@
         <v>2399.73</v>
       </c>
       <c r="C82" s="5">
-        <v>65.163700000000006</v>
+        <v>65.163699999999992</v>
       </c>
       <c r="D82" s="5">
         <v>0</v>
@@ -3934,7 +3940,7 @@
         <v>66.83</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13">
       <c r="A83" s="4">
         <v>34789</v>
       </c>
@@ -3975,7 +3981,7 @@
         <v>98.49</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13">
       <c r="A84" s="4">
         <v>34819</v>
       </c>
@@ -3983,7 +3989,7 @@
         <v>4830.53</v>
       </c>
       <c r="C84" s="5">
-        <v>345.56079999999997</v>
+        <v>345.56080000000003</v>
       </c>
       <c r="D84" s="5">
         <v>0</v>
@@ -4016,7 +4022,7 @@
         <v>131.31</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13">
       <c r="A85" s="4">
         <v>34850</v>
       </c>
@@ -4057,7 +4063,7 @@
         <v>166.7</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13">
       <c r="A86" s="4">
         <v>34880</v>
       </c>
@@ -4098,7 +4104,7 @@
         <v>201.44</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13">
       <c r="A87" s="4">
         <v>34911</v>
       </c>
@@ -4106,7 +4112,7 @@
         <v>8587.68</v>
       </c>
       <c r="C87" s="5">
-        <v>794.94269999999995</v>
+        <v>794.94270000000006</v>
       </c>
       <c r="D87" s="5">
         <v>0</v>
@@ -4139,7 +4145,7 @@
         <v>239.13</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13">
       <c r="A88" s="4">
         <v>34942</v>
       </c>
@@ -4180,7 +4186,7 @@
         <v>279.62</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13">
       <c r="A89" s="4">
         <v>34972</v>
       </c>
@@ -4221,7 +4227,7 @@
         <v>318.99</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13">
       <c r="A90" s="4">
         <v>35003</v>
       </c>
@@ -4262,7 +4268,7 @@
         <v>357.96</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13">
       <c r="A91" s="4">
         <v>35033</v>
       </c>
@@ -4270,7 +4276,7 @@
         <v>13693.5</v>
       </c>
       <c r="C91" s="5">
-        <v>1449.0603000000001</v>
+        <v>1449.0602999999999</v>
       </c>
       <c r="D91" s="5">
         <v>0</v>
@@ -4303,7 +4309,7 @@
         <v>398.71</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13">
       <c r="A92" s="4">
         <v>35064</v>
       </c>
@@ -4344,7 +4350,7 @@
         <v>435.32</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13">
       <c r="A93" s="4">
         <v>35095</v>
       </c>
@@ -4385,7 +4391,7 @@
         <v>37.39</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13">
       <c r="A94" s="4">
         <v>35124</v>
       </c>
@@ -4426,7 +4432,7 @@
         <v>77.87</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13">
       <c r="A95" s="4">
         <v>35155</v>
       </c>
@@ -4434,7 +4440,7 @@
         <v>3888.36</v>
       </c>
       <c r="C95" s="5">
-        <v>491</v>
+        <v>490.99999999999994</v>
       </c>
       <c r="D95" s="5">
         <v>0</v>
@@ -4467,7 +4473,7 @@
         <v>116.65</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13">
       <c r="A96" s="4">
         <v>35185</v>
       </c>
@@ -4508,7 +4514,7 @@
         <v>158.09</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13">
       <c r="A97" s="4">
         <v>35216</v>
       </c>
@@ -4549,7 +4555,7 @@
         <v>207.18</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13">
       <c r="A98" s="4">
         <v>35246</v>
       </c>
@@ -4590,7 +4596,7 @@
         <v>257.3</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13">
       <c r="A99" s="4">
         <v>35277</v>
       </c>
@@ -4631,7 +4637,7 @@
         <v>297.32</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13">
       <c r="A100" s="4">
         <v>35308</v>
       </c>
@@ -4672,7 +4678,7 @@
         <v>343.02</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13">
       <c r="A101" s="4">
         <v>35338</v>
       </c>
@@ -4713,7 +4719,7 @@
         <v>388.04</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13">
       <c r="A102" s="4">
         <v>35369</v>
       </c>
@@ -4754,7 +4760,7 @@
         <v>436.75</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13">
       <c r="A103" s="4">
         <v>35399</v>
       </c>
@@ -4795,7 +4801,7 @@
         <v>482.99</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13">
       <c r="A104" s="4">
         <v>35430</v>
       </c>
@@ -4836,7 +4842,7 @@
         <v>529.17999999999995</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13">
       <c r="A105" s="4">
         <v>35461</v>
       </c>
@@ -4844,7 +4850,7 @@
         <v>1374.46</v>
       </c>
       <c r="C105" s="5">
-        <v>156.60910000000001</v>
+        <v>156.60909999999998</v>
       </c>
       <c r="D105" s="5">
         <v>0</v>
@@ -4877,7 +4883,7 @@
         <v>42.33</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13">
       <c r="A106" s="4">
         <v>35489</v>
       </c>
@@ -4885,7 +4891,7 @@
         <v>2614.3200000000002</v>
       </c>
       <c r="C106" s="5">
-        <v>397.64789999999999</v>
+        <v>397.64790000000005</v>
       </c>
       <c r="D106" s="5">
         <v>0</v>
@@ -4906,7 +4912,7 @@
         <v>18900.400000000001</v>
       </c>
       <c r="J106" s="5">
-        <v>7.0693000000000001</v>
+        <v>7.0692999999999993</v>
       </c>
       <c r="K106" s="5">
         <v>530.24</v>
@@ -4918,7 +4924,7 @@
         <v>102.04</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13">
       <c r="A107" s="4">
         <v>35520</v>
       </c>
@@ -4926,7 +4932,7 @@
         <v>4000.52</v>
       </c>
       <c r="C107" s="5">
-        <v>728.02729999999997</v>
+        <v>728.02730000000008</v>
       </c>
       <c r="D107" s="5">
         <v>0</v>
@@ -4959,7 +4965,7 @@
         <v>126.12</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13">
       <c r="A108" s="4">
         <v>35550</v>
       </c>
@@ -5000,7 +5006,7 @@
         <v>171.34</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13">
       <c r="A109" s="4">
         <v>35581</v>
       </c>
@@ -5041,7 +5047,7 @@
         <v>217.64</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13">
       <c r="A110" s="4">
         <v>35611</v>
       </c>
@@ -5082,7 +5088,7 @@
         <v>265.24</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13">
       <c r="A111" s="4">
         <v>35642</v>
       </c>
@@ -5111,7 +5117,7 @@
         <v>78561.600000000006</v>
       </c>
       <c r="J111" s="5">
-        <v>27.143799999999999</v>
+        <v>27.143800000000002</v>
       </c>
       <c r="K111" s="5">
         <v>1911.36</v>
@@ -5123,7 +5129,7 @@
         <v>310.98</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13">
       <c r="A112" s="4">
         <v>35673</v>
       </c>
@@ -5131,7 +5137,7 @@
         <v>10819</v>
       </c>
       <c r="C112" s="5">
-        <v>2112.8888000000002</v>
+        <v>2112.8887999999997</v>
       </c>
       <c r="D112" s="5">
         <v>0</v>
@@ -5152,7 +5158,7 @@
         <v>89802.4</v>
       </c>
       <c r="J112" s="5">
-        <v>18.458100000000002</v>
+        <v>18.458099999999998</v>
       </c>
       <c r="K112" s="5">
         <v>2204.1</v>
@@ -5164,7 +5170,7 @@
         <v>361.3</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13">
       <c r="A113" s="4">
         <v>35703</v>
       </c>
@@ -5205,7 +5211,7 @@
         <v>415.32</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13">
       <c r="A114" s="4">
         <v>35734</v>
       </c>
@@ -5246,7 +5252,7 @@
         <v>472.1</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13">
       <c r="A115" s="4">
         <v>35764</v>
       </c>
@@ -5254,7 +5260,7 @@
         <v>14856.67</v>
       </c>
       <c r="C115" s="5">
-        <v>3057.3863999999999</v>
+        <v>3057.3864000000003</v>
       </c>
       <c r="D115" s="5">
         <v>0</v>
@@ -5275,7 +5281,7 @@
         <v>123887.7</v>
       </c>
       <c r="J115" s="5">
-        <v>33.392200000000003</v>
+        <v>33.392199999999995</v>
       </c>
       <c r="K115" s="5">
         <v>3162.84</v>
@@ -5287,7 +5293,7 @@
         <v>523.80999999999995</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13">
       <c r="A116" s="4">
         <v>35795</v>
       </c>
@@ -5328,7 +5334,7 @@
         <v>573.69000000000005</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13">
       <c r="A117" s="4">
         <v>35826</v>
       </c>
@@ -5369,7 +5375,7 @@
         <v>48.25</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13">
       <c r="A118" s="4">
         <v>35854</v>
       </c>
@@ -5377,7 +5383,7 @@
         <v>2525.5100000000002</v>
       </c>
       <c r="C118" s="5">
-        <v>494.13839999999999</v>
+        <v>494.13840000000005</v>
       </c>
       <c r="D118" s="5">
         <v>0</v>
@@ -5410,7 +5416,7 @@
         <v>99.69</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13">
       <c r="A119" s="4">
         <v>35885</v>
       </c>
@@ -5439,7 +5445,7 @@
         <v>23129.3</v>
       </c>
       <c r="J119" s="5">
-        <v>6.3829000000000002</v>
+        <v>6.3828999999999994</v>
       </c>
       <c r="K119" s="5">
         <v>819.15</v>
@@ -5451,7 +5457,7 @@
         <v>154.71</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13">
       <c r="A120" s="4">
         <v>35915</v>
       </c>
@@ -5492,7 +5498,7 @@
         <v>206.84</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13">
       <c r="A121" s="4">
         <v>35946</v>
       </c>
@@ -5533,7 +5539,7 @@
         <v>260.62</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13">
       <c r="A122" s="4">
         <v>35976</v>
       </c>
@@ -5562,7 +5568,7 @@
         <v>53970.7</v>
       </c>
       <c r="J122" s="5">
-        <v>7.5320999999999998</v>
+        <v>7.5320999999999989</v>
       </c>
       <c r="K122" s="5">
         <v>1639.2</v>
@@ -5574,7 +5580,7 @@
         <v>311.55</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13">
       <c r="A123" s="4">
         <v>36007</v>
       </c>
@@ -5603,7 +5609,7 @@
         <v>63622.5</v>
       </c>
       <c r="J123" s="5">
-        <v>13.5878</v>
+        <v>13.587800000000001</v>
       </c>
       <c r="K123" s="5">
         <v>1952.5</v>
@@ -5615,7 +5621,7 @@
         <v>359.08</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13">
       <c r="A124" s="4">
         <v>36038</v>
       </c>
@@ -5623,7 +5629,7 @@
         <v>10646.3</v>
       </c>
       <c r="C124" s="5">
-        <v>2081.5309000000002</v>
+        <v>2081.5308999999997</v>
       </c>
       <c r="D124" s="5">
         <v>0</v>
@@ -5656,7 +5662,7 @@
         <v>406.54</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13">
       <c r="A125" s="4">
         <v>36068</v>
       </c>
@@ -5697,7 +5703,7 @@
         <v>456.86</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13">
       <c r="A126" s="4">
         <v>36099</v>
       </c>
@@ -5738,7 +5744,7 @@
         <v>511.41</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13">
       <c r="A127" s="4">
         <v>36129</v>
       </c>
@@ -5779,7 +5785,7 @@
         <v>567.95000000000005</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13">
       <c r="A128" s="4">
         <v>36160</v>
       </c>
@@ -5820,7 +5826,7 @@
         <v>574.89</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13">
       <c r="A129" s="4">
         <v>36191</v>
       </c>
@@ -5828,7 +5834,7 @@
         <v>1363.47</v>
       </c>
       <c r="C129" s="5">
-        <v>130.88800000000001</v>
+        <v>130.88799999999998</v>
       </c>
       <c r="D129" s="5">
         <v>0</v>
@@ -5861,7 +5867,7 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13">
       <c r="A130" s="4">
         <v>36219</v>
       </c>
@@ -5902,7 +5908,7 @@
         <v>95.9</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13">
       <c r="A131" s="4">
         <v>36250</v>
       </c>
@@ -5910,7 +5916,7 @@
         <v>3952.46</v>
       </c>
       <c r="C131" s="5">
-        <v>731.18960000000004</v>
+        <v>731.18959999999993</v>
       </c>
       <c r="D131" s="5">
         <v>0</v>
@@ -5943,7 +5949,7 @@
         <v>147.26</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13">
       <c r="A132" s="4">
         <v>36280</v>
       </c>
@@ -5984,7 +5990,7 @@
         <v>208.29</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13">
       <c r="A133" s="4">
         <v>36311</v>
       </c>
@@ -6025,7 +6031,7 @@
         <v>262.04000000000002</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13">
       <c r="A134" s="4">
         <v>36341</v>
       </c>
@@ -6066,7 +6072,7 @@
         <v>326.48</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13">
       <c r="A135" s="4">
         <v>36372</v>
       </c>
@@ -6107,7 +6113,7 @@
         <v>390.93</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13">
       <c r="A136" s="4">
         <v>36403</v>
       </c>
@@ -6115,7 +6121,7 @@
         <v>10698.64</v>
       </c>
       <c r="C136" s="5">
-        <v>2281.7543999999998</v>
+        <v>2281.7544000000003</v>
       </c>
       <c r="D136" s="5">
         <v>0</v>
@@ -6136,7 +6142,7 @@
         <v>62381.3</v>
       </c>
       <c r="J136" s="5">
-        <v>17.180900000000001</v>
+        <v>17.180899999999998</v>
       </c>
       <c r="K136" s="5">
         <v>2415.13</v>
@@ -6148,7 +6154,7 @@
         <v>461.82</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13">
       <c r="A137" s="4">
         <v>36433</v>
       </c>
@@ -6189,7 +6195,7 @@
         <v>529.01</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13">
       <c r="A138" s="4">
         <v>36464</v>
       </c>
@@ -6218,7 +6224,7 @@
         <v>78407.399999999994</v>
       </c>
       <c r="J138" s="5">
-        <v>19.104500000000002</v>
+        <v>19.104499999999998</v>
       </c>
       <c r="K138" s="5">
         <v>3021.78</v>
@@ -6230,7 +6236,7 @@
         <v>606.17999999999995</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13">
       <c r="A139" s="4">
         <v>36494</v>
       </c>
@@ -6271,7 +6277,7 @@
         <v>670.21</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13">
       <c r="A140" s="4">
         <v>36525</v>
       </c>
@@ -6279,7 +6285,7 @@
         <v>16021.54</v>
       </c>
       <c r="C140" s="5">
-        <v>3661.3679999999999</v>
+        <v>3661.3680000000004</v>
       </c>
       <c r="D140" s="5">
         <v>0</v>
@@ -6312,7 +6318,7 @@
         <v>719.46</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13">
       <c r="A141" s="4">
         <v>36556</v>
       </c>
@@ -6320,7 +6326,7 @@
         <v>1346.52</v>
       </c>
       <c r="C141" s="5">
-        <v>450.47609999999997</v>
+        <v>450.47610000000003</v>
       </c>
       <c r="D141" s="5">
         <v>0</v>
@@ -6353,7 +6359,7 @@
         <v>52.55</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13">
       <c r="A142" s="4">
         <v>36585</v>
       </c>
@@ -6361,7 +6367,7 @@
         <v>2677.61</v>
       </c>
       <c r="C142" s="5">
-        <v>1032.4956999999999</v>
+        <v>1032.4957000000002</v>
       </c>
       <c r="D142" s="5">
         <v>0</v>
@@ -6382,7 +6388,7 @@
         <v>10763.9</v>
       </c>
       <c r="J142" s="5">
-        <v>14.2874</v>
+        <v>14.287399999999998</v>
       </c>
       <c r="K142" s="5">
         <v>674.96</v>
@@ -6394,7 +6400,7 @@
         <v>113.48</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13">
       <c r="A143" s="4">
         <v>36616</v>
       </c>
@@ -6435,7 +6441,7 @@
         <v>205.46</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13">
       <c r="A144" s="4">
         <v>36646</v>
       </c>
@@ -6476,7 +6482,7 @@
         <v>283.3</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13">
       <c r="A145" s="4">
         <v>36677</v>
       </c>
@@ -6517,7 +6523,7 @@
         <v>358.82</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:13">
       <c r="A146" s="4">
         <v>36707</v>
       </c>
@@ -6525,7 +6531,7 @@
         <v>8109.79</v>
       </c>
       <c r="C146" s="5">
-        <v>3241.1086</v>
+        <v>3241.1086000000005</v>
       </c>
       <c r="D146" s="5">
         <v>0</v>
@@ -6558,7 +6564,7 @@
         <v>437.63</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13">
       <c r="A147" s="4">
         <v>36738</v>
       </c>
@@ -6599,7 +6605,7 @@
         <v>511.06</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:13">
       <c r="A148" s="4">
         <v>36769</v>
       </c>
@@ -6640,7 +6646,7 @@
         <v>583.04999999999995</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13">
       <c r="A149" s="4">
         <v>36799</v>
       </c>
@@ -6681,7 +6687,7 @@
         <v>655.44</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:13">
       <c r="A150" s="4">
         <v>36830</v>
       </c>
@@ -6722,7 +6728,7 @@
         <v>727.93</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:13">
       <c r="A151" s="4">
         <v>36860</v>
       </c>
@@ -6763,7 +6769,7 @@
         <v>800.24</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:13">
       <c r="A152" s="4">
         <v>36891</v>
       </c>
@@ -6804,7 +6810,7 @@
         <v>872.29</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:13">
       <c r="A153" s="4">
         <v>36922</v>
       </c>
@@ -6845,7 +6851,7 @@
         <v>61.52</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:13">
       <c r="A154" s="4">
         <v>36950</v>
       </c>
@@ -6886,7 +6892,7 @@
         <v>120.01</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:13">
       <c r="A155" s="4">
         <v>36981</v>
       </c>
@@ -6927,7 +6933,7 @@
         <v>182.29</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:13">
       <c r="A156" s="4">
         <v>37011</v>
       </c>
@@ -6935,7 +6941,7 @@
         <v>5436.97</v>
       </c>
       <c r="C156" s="5">
-        <v>2072.5088999999998</v>
+        <v>2072.5089000000003</v>
       </c>
       <c r="D156" s="5">
         <v>0</v>
@@ -6968,7 +6974,7 @@
         <v>244.62</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:13">
       <c r="A157" s="4">
         <v>37042</v>
       </c>
@@ -6997,7 +7003,7 @@
         <v>37363.5</v>
       </c>
       <c r="J157" s="5">
-        <v>22.258600000000001</v>
+        <v>22.258599999999998</v>
       </c>
       <c r="K157" s="5">
         <v>1805.97</v>
@@ -7009,7 +7015,7 @@
         <v>316.52</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:13">
       <c r="A158" s="4">
         <v>37072</v>
       </c>
@@ -7017,7 +7023,7 @@
         <v>8184.31</v>
       </c>
       <c r="C158" s="5">
-        <v>3200.7536</v>
+        <v>3200.7535999999996</v>
       </c>
       <c r="D158" s="5">
         <v>0</v>
@@ -7050,7 +7056,7 @@
         <v>389.45</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:13">
       <c r="A159" s="4">
         <v>37103</v>
       </c>
@@ -7091,7 +7097,7 @@
         <v>458.77</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:13">
       <c r="A160" s="4">
         <v>37134</v>
       </c>
@@ -7099,7 +7105,7 @@
         <v>10972.03</v>
       </c>
       <c r="C160" s="5">
-        <v>4303.3491999999997</v>
+        <v>4303.3492000000006</v>
       </c>
       <c r="D160" s="5">
         <v>0</v>
@@ -7132,7 +7138,7 @@
         <v>526.63</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:13">
       <c r="A161" s="4">
         <v>37164</v>
       </c>
@@ -7161,7 +7167,7 @@
         <v>68783.7</v>
       </c>
       <c r="J161" s="5">
-        <v>30.692900000000002</v>
+        <v>30.692899999999998</v>
       </c>
       <c r="K161" s="5">
         <v>3119.78</v>
@@ -7173,7 +7179,7 @@
         <v>590.41</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:13">
       <c r="A162" s="4">
         <v>37195</v>
       </c>
@@ -7214,7 +7220,7 @@
         <v>662.82</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:13">
       <c r="A163" s="4">
         <v>37225</v>
       </c>
@@ -7255,7 +7261,7 @@
         <v>733.46</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:13">
       <c r="A164" s="4">
         <v>37256</v>
       </c>
@@ -7296,7 +7302,7 @@
         <v>789.35</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:13">
       <c r="A165" s="4">
         <v>37287</v>
       </c>
@@ -7304,7 +7310,7 @@
         <v>1428.96</v>
       </c>
       <c r="C165" s="5">
-        <v>470.60079999999999</v>
+        <v>470.60080000000005</v>
       </c>
       <c r="D165" s="5">
         <v>0</v>
@@ -7325,7 +7331,7 @@
         <v>8633.1</v>
       </c>
       <c r="J165" s="5">
-        <v>108.9687</v>
+        <v>108.96870000000001</v>
       </c>
       <c r="K165" s="5">
         <v>340.42</v>
@@ -7337,7 +7343,7 @@
         <v>55.38</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:13">
       <c r="A166" s="4">
         <v>37315</v>
       </c>
@@ -7345,7 +7351,7 @@
         <v>2690.53</v>
       </c>
       <c r="C166" s="5">
-        <v>921.23109999999997</v>
+        <v>921.23110000000008</v>
       </c>
       <c r="D166" s="5">
         <v>0</v>
@@ -7378,7 +7384,7 @@
         <v>117.58</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:13">
       <c r="A167" s="4">
         <v>37346</v>
       </c>
@@ -7386,7 +7392,7 @@
         <v>4139.28</v>
       </c>
       <c r="C167" s="5">
-        <v>1457.9631999999999</v>
+        <v>1457.9632000000001</v>
       </c>
       <c r="D167" s="5">
         <v>0</v>
@@ -7407,7 +7413,7 @@
         <v>24746.7</v>
       </c>
       <c r="J167" s="5">
-        <v>108.41630000000001</v>
+        <v>108.41629999999999</v>
       </c>
       <c r="K167" s="5">
         <v>992.3</v>
@@ -7419,7 +7425,7 @@
         <v>183.15</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:13">
       <c r="A168" s="4">
         <v>37376</v>
       </c>
@@ -7460,7 +7466,7 @@
         <v>254.8</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:13">
       <c r="A169" s="4">
         <v>37407</v>
       </c>
@@ -7489,7 +7495,7 @@
         <v>43256.4</v>
       </c>
       <c r="J169" s="5">
-        <v>64.262600000000006</v>
+        <v>64.262599999999992</v>
       </c>
       <c r="K169" s="5">
         <v>1715.69</v>
@@ -7501,7 +7507,7 @@
         <v>326.97000000000003</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:13">
       <c r="A170" s="4">
         <v>37437</v>
       </c>
@@ -7542,7 +7548,7 @@
         <v>403.11</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:13">
       <c r="A171" s="4">
         <v>37468</v>
       </c>
@@ -7550,7 +7556,7 @@
         <v>9888.09</v>
       </c>
       <c r="C171" s="5">
-        <v>3899.8494999999998</v>
+        <v>3899.8495000000003</v>
       </c>
       <c r="D171" s="5">
         <v>0</v>
@@ -7571,7 +7577,7 @@
         <v>61172.800000000003</v>
       </c>
       <c r="J171" s="5">
-        <v>70.125600000000006</v>
+        <v>70.125599999999991</v>
       </c>
       <c r="K171" s="5">
         <v>2426.9</v>
@@ -7583,7 +7589,7 @@
         <v>468.52</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:13">
       <c r="A172" s="4">
         <v>37499</v>
       </c>
@@ -7624,7 +7630,7 @@
         <v>537.79999999999995</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:13">
       <c r="A173" s="4">
         <v>37529</v>
       </c>
@@ -7665,7 +7671,7 @@
         <v>603.20000000000005</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:13">
       <c r="A174" s="4">
         <v>37560</v>
       </c>
@@ -7706,7 +7712,7 @@
         <v>681.31</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:13">
       <c r="A175" s="4">
         <v>37590</v>
       </c>
@@ -7747,7 +7753,7 @@
         <v>763.78</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:13">
       <c r="A176" s="4">
         <v>37621</v>
       </c>
@@ -7776,7 +7782,7 @@
         <v>111293.5</v>
       </c>
       <c r="J176" s="5">
-        <v>111.6018</v>
+        <v>111.60180000000001</v>
       </c>
       <c r="K176" s="5">
         <v>4320.76</v>
@@ -7788,7 +7794,7 @@
         <v>826.11</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:13">
       <c r="A177" s="4">
         <v>37652</v>
       </c>
@@ -7829,7 +7835,7 @@
         <v>74.16</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13">
       <c r="A178" s="4">
         <v>37680</v>
       </c>
@@ -7870,7 +7876,7 @@
         <v>152.63999999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:13">
       <c r="A179" s="4">
         <v>37711</v>
       </c>
@@ -7911,7 +7917,7 @@
         <v>229.92</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:13">
       <c r="A180" s="4">
         <v>37741</v>
       </c>
@@ -7940,7 +7946,7 @@
         <v>39119.599999999999</v>
       </c>
       <c r="J180" s="5">
-        <v>67.216899999999995</v>
+        <v>67.21690000000001</v>
       </c>
       <c r="K180" s="5">
         <v>1550.41</v>
@@ -7952,7 +7958,7 @@
         <v>301.97000000000003</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:13">
       <c r="A181" s="4">
         <v>37772</v>
       </c>
@@ -7981,7 +7987,7 @@
         <v>50008.2</v>
       </c>
       <c r="J181" s="5">
-        <v>63.808999999999997</v>
+        <v>63.809000000000005</v>
       </c>
       <c r="K181" s="5">
         <v>1914.86</v>
@@ -7993,7 +7999,7 @@
         <v>354.95</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13">
       <c r="A182" s="4">
         <v>37802</v>
       </c>
@@ -8022,7 +8028,7 @@
         <v>61609.4</v>
       </c>
       <c r="J182" s="5">
-        <v>68.325999999999993</v>
+        <v>68.326000000000008</v>
       </c>
       <c r="K182" s="5">
         <v>2292.6799999999998</v>
@@ -8034,7 +8040,7 @@
         <v>402.3</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:13">
       <c r="A183" s="4">
         <v>37833</v>
       </c>
@@ -8045,7 +8051,7 @@
         <v>5063.8346000000001</v>
       </c>
       <c r="D183" s="5">
-        <v>1571</v>
+        <v>1571.0000000000002</v>
       </c>
       <c r="E183" s="5">
         <v>821</v>
@@ -8075,7 +8081,7 @@
         <v>464.4</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:13">
       <c r="A184" s="4">
         <v>37864</v>
       </c>
@@ -8086,7 +8092,7 @@
         <v>5742.5785999999998</v>
       </c>
       <c r="D184" s="5">
-        <v>1855</v>
+        <v>1854.9999999999998</v>
       </c>
       <c r="E184" s="5">
         <v>925</v>
@@ -8116,7 +8122,7 @@
         <v>543.72</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:13">
       <c r="A185" s="4">
         <v>37894</v>
       </c>
@@ -8157,7 +8163,7 @@
         <v>625.41</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:13">
       <c r="A186" s="4">
         <v>37925</v>
       </c>
@@ -8186,7 +8192,7 @@
         <v>105488.5</v>
       </c>
       <c r="J186" s="5">
-        <v>65.965999999999994</v>
+        <v>65.966000000000008</v>
       </c>
       <c r="K186" s="5">
         <v>3895.35</v>
@@ -8198,7 +8204,7 @@
         <v>708.38</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:13">
       <c r="A187" s="4">
         <v>37955</v>
       </c>
@@ -8227,7 +8233,7 @@
         <v>117779.2</v>
       </c>
       <c r="J187" s="5">
-        <v>78.081199999999995</v>
+        <v>78.08120000000001</v>
       </c>
       <c r="K187" s="5">
         <v>4323.2700000000004</v>
@@ -8239,7 +8245,7 @@
         <v>783.52</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:13">
       <c r="A188" s="4">
         <v>37986</v>
       </c>
@@ -8247,7 +8253,7 @@
         <v>16959.98</v>
       </c>
       <c r="C188" s="5">
-        <v>9112.6265000000003</v>
+        <v>9112.6264999999985</v>
       </c>
       <c r="D188" s="5">
         <v>2824</v>
@@ -8280,7 +8286,7 @@
         <v>855.3</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:13">
       <c r="A189" s="4">
         <v>38017</v>
       </c>
@@ -8321,7 +8327,7 @@
         <v>79.56</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:13">
       <c r="A190" s="4">
         <v>38046</v>
       </c>
@@ -8362,7 +8368,7 @@
         <v>160.25</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:13">
       <c r="A191" s="4">
         <v>38077</v>
       </c>
@@ -8370,7 +8376,7 @@
         <v>4261.63</v>
       </c>
       <c r="C191" s="5">
-        <v>3013.9803000000002</v>
+        <v>3013.9802999999997</v>
       </c>
       <c r="D191" s="5">
         <v>831</v>
@@ -8403,7 +8409,7 @@
         <v>236.9</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:13">
       <c r="A192" s="4">
         <v>38107</v>
       </c>
@@ -8444,7 +8450,7 @@
         <v>305.8</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:13">
       <c r="A193" s="4">
         <v>38138</v>
       </c>
@@ -8452,7 +8458,7 @@
         <v>7147.83</v>
       </c>
       <c r="C193" s="5">
-        <v>4976.0078999999996</v>
+        <v>4976.0079000000005</v>
       </c>
       <c r="D193" s="5">
         <v>1604</v>
@@ -8473,7 +8479,7 @@
         <v>60020.2</v>
       </c>
       <c r="J193" s="5">
-        <v>119.32170000000001</v>
+        <v>119.32169999999999</v>
       </c>
       <c r="K193" s="5">
         <v>2152.4699999999998</v>
@@ -8485,7 +8491,7 @@
         <v>382.78</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:13">
       <c r="A194" s="4">
         <v>38168</v>
       </c>
@@ -8493,10 +8499,10 @@
         <v>8571.33</v>
       </c>
       <c r="C194" s="5">
-        <v>6102.5474999999997</v>
+        <v>6102.5475000000006</v>
       </c>
       <c r="D194" s="5">
-        <v>1985</v>
+        <v>1985.0000000000002</v>
       </c>
       <c r="E194" s="5">
         <v>510</v>
@@ -8526,7 +8532,7 @@
         <v>465.21</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:13">
       <c r="A195" s="4">
         <v>38199</v>
       </c>
@@ -8555,7 +8561,7 @@
         <v>87523</v>
       </c>
       <c r="J195" s="5">
-        <v>187.24109999999999</v>
+        <v>187.24110000000002</v>
       </c>
       <c r="K195" s="5">
         <v>2996.61</v>
@@ -8567,7 +8573,7 @@
         <v>545.9</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:13">
       <c r="A196" s="4">
         <v>38230</v>
       </c>
@@ -8575,7 +8581,7 @@
         <v>11538.08</v>
       </c>
       <c r="C196" s="5">
-        <v>7996.5351000000001</v>
+        <v>7996.5350999999991</v>
       </c>
       <c r="D196" s="5">
         <v>2531</v>
@@ -8608,7 +8614,7 @@
         <v>624.79</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:13">
       <c r="A197" s="4">
         <v>38260</v>
       </c>
@@ -8649,7 +8655,7 @@
         <v>711.4</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:13">
       <c r="A198" s="4">
         <v>38291</v>
       </c>
@@ -8660,7 +8666,7 @@
         <v>9958.9087999999992</v>
       </c>
       <c r="D198" s="5">
-        <v>3049</v>
+        <v>3048.9999999999995</v>
       </c>
       <c r="E198" s="5">
         <v>908</v>
@@ -8690,7 +8696,7 @@
         <v>802.76</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:13">
       <c r="A199" s="4">
         <v>38321</v>
       </c>
@@ -8719,7 +8725,7 @@
         <v>142738.1</v>
       </c>
       <c r="J199" s="5">
-        <v>201.9554</v>
+        <v>201.95540000000003</v>
       </c>
       <c r="K199" s="5">
         <v>4772.6400000000003</v>
@@ -8731,7 +8737,7 @@
         <v>883.95</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:13">
       <c r="A200" s="4">
         <v>38352</v>
       </c>
@@ -8739,7 +8745,7 @@
         <v>17587.330000000002</v>
       </c>
       <c r="C200" s="5">
-        <v>12281.546899999999</v>
+        <v>12281.546900000001</v>
       </c>
       <c r="D200" s="5">
         <v>3788</v>
@@ -8772,7 +8778,7 @@
         <v>970.75</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:13">
       <c r="A201" s="4">
         <v>38383</v>
       </c>
@@ -8813,7 +8819,7 @@
         <v>80.66</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:13">
       <c r="A202" s="4">
         <v>38411</v>
       </c>
@@ -8854,7 +8860,7 @@
         <v>160.16</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:13">
       <c r="A203" s="4">
         <v>38442</v>
       </c>
@@ -8883,7 +8889,7 @@
         <v>38212.199999999997</v>
       </c>
       <c r="J203" s="5">
-        <v>218.62610000000001</v>
+        <v>218.62609999999998</v>
       </c>
       <c r="K203" s="5">
         <v>1353.78</v>
@@ -8895,7 +8901,7 @@
         <v>253.43</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:13">
       <c r="A204" s="4">
         <v>38472</v>
       </c>
@@ -8924,7 +8930,7 @@
         <v>52860.7</v>
       </c>
       <c r="J204" s="5">
-        <v>197.6611</v>
+        <v>197.66110000000003</v>
       </c>
       <c r="K204" s="5">
         <v>1780.11</v>
@@ -8936,7 +8942,7 @@
         <v>335.7</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:13">
       <c r="A205" s="4">
         <v>38503</v>
       </c>
@@ -8965,7 +8971,7 @@
         <v>67766.399999999994</v>
       </c>
       <c r="J205" s="5">
-        <v>236.91309999999999</v>
+        <v>236.91310000000001</v>
       </c>
       <c r="K205" s="5">
         <v>2216.06</v>
@@ -8977,7 +8983,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:13">
       <c r="A206" s="4">
         <v>38533</v>
       </c>
@@ -8991,7 +8997,7 @@
         <v>1575</v>
       </c>
       <c r="E206" s="5">
-        <v>759</v>
+        <v>758.99999999999989</v>
       </c>
       <c r="F206" s="5">
         <v>2.9589999999999998E-3</v>
@@ -9018,7 +9024,7 @@
         <v>500.06</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:13">
       <c r="A207" s="4">
         <v>38564</v>
       </c>
@@ -9029,7 +9035,7 @@
         <v>7462.2755999999999</v>
       </c>
       <c r="D207" s="5">
-        <v>1812</v>
+        <v>1812.0000000000002</v>
       </c>
       <c r="E207" s="5">
         <v>882</v>
@@ -9059,7 +9065,7 @@
         <v>590.44000000000005</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:13">
       <c r="A208" s="4">
         <v>38595</v>
       </c>
@@ -9100,7 +9106,7 @@
         <v>688.7</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:13">
       <c r="A209" s="4">
         <v>38625</v>
       </c>
@@ -9141,7 +9147,7 @@
         <v>771.3</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:13">
       <c r="A210" s="4">
         <v>38656</v>
       </c>
@@ -9149,7 +9155,7 @@
         <v>15107.4</v>
       </c>
       <c r="C210" s="5">
-        <v>10548.387699999999</v>
+        <v>10548.387700000001</v>
       </c>
       <c r="D210" s="5">
         <v>2569</v>
@@ -9170,7 +9176,7 @@
         <v>146912.29999999999</v>
       </c>
       <c r="J210" s="5">
-        <v>216.8546</v>
+        <v>216.85460000000003</v>
       </c>
       <c r="K210" s="5">
         <v>4459.13</v>
@@ -9182,7 +9188,7 @@
         <v>846.99</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:13">
       <c r="A211" s="4">
         <v>38686</v>
       </c>
@@ -9211,7 +9217,7 @@
         <v>163858.5</v>
       </c>
       <c r="J211" s="5">
-        <v>246.4983</v>
+        <v>246.49829999999997</v>
       </c>
       <c r="K211" s="5">
         <v>4934.8500000000004</v>
@@ -9223,7 +9229,7 @@
         <v>919.97</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:13">
       <c r="A212" s="4">
         <v>38717</v>
       </c>
@@ -9231,10 +9237,10 @@
         <v>18083.89</v>
       </c>
       <c r="C212" s="5">
-        <v>12708.318600000001</v>
+        <v>12708.318599999999</v>
       </c>
       <c r="D212" s="5">
-        <v>3143</v>
+        <v>3142.9999999999995</v>
       </c>
       <c r="E212" s="5">
         <v>1401</v>
@@ -9264,7 +9270,7 @@
         <v>988.59</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:13">
       <c r="A213" s="4">
         <v>38748</v>
       </c>
@@ -9278,7 +9284,7 @@
         <v>262</v>
       </c>
       <c r="E213" s="5">
-        <v>95</v>
+        <v>95.000000000000014</v>
       </c>
       <c r="F213" s="5">
         <v>0</v>
@@ -9305,7 +9311,7 @@
         <v>101.21</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:13">
       <c r="A214" s="4">
         <v>38776</v>
       </c>
@@ -9334,7 +9340,7 @@
         <v>26620.3</v>
       </c>
       <c r="J214" s="5">
-        <v>262.99200000000002</v>
+        <v>262.99199999999996</v>
       </c>
       <c r="K214" s="5">
         <v>925.97</v>
@@ -9346,7 +9352,7 @@
         <v>175.81</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:13">
       <c r="A215" s="4">
         <v>38807</v>
       </c>
@@ -9387,7 +9393,7 @@
         <v>252.03</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:13">
       <c r="A216" s="4">
         <v>38837</v>
       </c>
@@ -9401,7 +9407,7 @@
         <v>1116</v>
       </c>
       <c r="E216" s="5">
-        <v>420</v>
+        <v>419.99999999999994</v>
       </c>
       <c r="F216" s="5">
         <v>1.5300000000000001E-4</v>
@@ -9428,7 +9434,7 @@
         <v>313.49</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:13">
       <c r="A217" s="4">
         <v>38868</v>
       </c>
@@ -9457,7 +9463,7 @@
         <v>77885.7</v>
       </c>
       <c r="J217" s="5">
-        <v>317.97410000000002</v>
+        <v>317.97409999999996</v>
       </c>
       <c r="K217" s="5">
         <v>2314.08</v>
@@ -9469,7 +9475,7 @@
         <v>404.73</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:13">
       <c r="A218" s="4">
         <v>38898</v>
       </c>
@@ -9477,10 +9483,10 @@
         <v>9166.4</v>
       </c>
       <c r="C218" s="5">
-        <v>7333.6427000000003</v>
+        <v>7333.6426999999994</v>
       </c>
       <c r="D218" s="5">
-        <v>1823</v>
+        <v>1822.9999999999998</v>
       </c>
       <c r="E218" s="5">
         <v>620</v>
@@ -9510,7 +9516,7 @@
         <v>484.23</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:13">
       <c r="A219" s="4">
         <v>38929</v>
       </c>
@@ -9551,7 +9557,7 @@
         <v>566.25</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:13">
       <c r="A220" s="4">
         <v>38960</v>
       </c>
@@ -9592,7 +9598,7 @@
         <v>647.92999999999995</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:13">
       <c r="A221" s="4">
         <v>38990</v>
       </c>
@@ -9633,7 +9639,7 @@
         <v>731.52</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:13">
       <c r="A222" s="4">
         <v>39021</v>
       </c>
@@ -9647,7 +9653,7 @@
         <v>3186</v>
       </c>
       <c r="E222" s="5">
-        <v>999</v>
+        <v>998.99999999999989</v>
       </c>
       <c r="F222" s="5">
         <v>4.520454</v>
@@ -9674,7 +9680,7 @@
         <v>813.87</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:13">
       <c r="A223" s="4">
         <v>39051</v>
       </c>
@@ -9682,10 +9688,10 @@
         <v>16842.439999999999</v>
       </c>
       <c r="C223" s="5">
-        <v>13361.539500000001</v>
+        <v>13361.539499999999</v>
       </c>
       <c r="D223" s="5">
-        <v>3424</v>
+        <v>3424.0000000000005</v>
       </c>
       <c r="E223" s="5">
         <v>1119</v>
@@ -9715,7 +9721,7 @@
         <v>885.41</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:13">
       <c r="A224" s="4">
         <v>39082</v>
       </c>
@@ -9726,7 +9732,7 @@
         <v>14518.0329</v>
       </c>
       <c r="D224" s="5">
-        <v>3638</v>
+        <v>3637.9999999999995</v>
       </c>
       <c r="E224" s="5">
         <v>1235</v>
@@ -9756,7 +9762,7 @@
         <v>959.95</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:13">
       <c r="A225" s="4">
         <v>39113</v>
       </c>
@@ -9797,7 +9803,7 @@
         <v>76.48</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:13">
       <c r="A226" s="4">
         <v>39141</v>
       </c>
@@ -9811,7 +9817,7 @@
         <v>505</v>
       </c>
       <c r="E226" s="5">
-        <v>234</v>
+        <v>233.99999999999997</v>
       </c>
       <c r="F226" s="5">
         <v>4.193276</v>
@@ -9838,7 +9844,7 @@
         <v>162.13</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:13">
       <c r="A227" s="4">
         <v>39172</v>
       </c>
@@ -9846,7 +9852,7 @@
         <v>4604.1400000000003</v>
       </c>
       <c r="C227" s="5">
-        <v>3964.6136000000001</v>
+        <v>3964.6135999999997</v>
       </c>
       <c r="D227" s="5">
         <v>798</v>
@@ -9879,7 +9885,7 @@
         <v>253.72</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:13">
       <c r="A228" s="4">
         <v>39202</v>
       </c>
@@ -9908,7 +9914,7 @@
         <v>68586</v>
       </c>
       <c r="J228" s="5">
-        <v>501.16289999999998</v>
+        <v>501.16290000000004</v>
       </c>
       <c r="K228" s="5">
         <v>1957.6</v>
@@ -9920,7 +9926,7 @@
         <v>346.69</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:13">
       <c r="A229" s="4">
         <v>39233</v>
       </c>
@@ -9928,7 +9934,7 @@
         <v>7750.44</v>
       </c>
       <c r="C229" s="5">
-        <v>6742.7322999999997</v>
+        <v>6742.7323000000006</v>
       </c>
       <c r="D229" s="5">
         <v>1479</v>
@@ -9961,7 +9967,7 @@
         <v>451.97</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:13">
       <c r="A230" s="4">
         <v>39263</v>
       </c>
@@ -9969,13 +9975,13 @@
         <v>9330.98</v>
       </c>
       <c r="C230" s="5">
-        <v>8154.4331000000002</v>
+        <v>8154.4330999999993</v>
       </c>
       <c r="D230" s="5">
         <v>1805</v>
       </c>
       <c r="E230" s="5">
-        <v>791</v>
+        <v>790.99999999999989</v>
       </c>
       <c r="F230" s="5">
         <v>14.152927</v>
@@ -9990,7 +9996,7 @@
         <v>108190</v>
       </c>
       <c r="J230" s="5">
-        <v>410.0729</v>
+        <v>410.07289999999995</v>
       </c>
       <c r="K230" s="5">
         <v>2980.16</v>
@@ -10002,7 +10008,7 @@
         <v>552.1</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:13">
       <c r="A231" s="4">
         <v>39294</v>
       </c>
@@ -10043,7 +10049,7 @@
         <v>660.58</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:13">
       <c r="A232" s="4">
         <v>39325</v>
       </c>
@@ -10051,7 +10057,7 @@
         <v>12465</v>
       </c>
       <c r="C232" s="5">
-        <v>11041.1495</v>
+        <v>11041.149500000001</v>
       </c>
       <c r="D232" s="5">
         <v>2428</v>
@@ -10084,7 +10090,7 @@
         <v>768.36</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:13">
       <c r="A233" s="4">
         <v>39355</v>
       </c>
@@ -10113,7 +10119,7 @@
         <v>167674.20000000001</v>
       </c>
       <c r="J233" s="5">
-        <v>373.27010000000001</v>
+        <v>373.27009999999996</v>
       </c>
       <c r="K233" s="5">
         <v>4475.92</v>
@@ -10125,7 +10131,7 @@
         <v>866.96</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:13">
       <c r="A234" s="4">
         <v>39386</v>
       </c>
@@ -10133,7 +10139,7 @@
         <v>15573.09</v>
       </c>
       <c r="C234" s="5">
-        <v>13668.424499999999</v>
+        <v>13668.424500000001</v>
       </c>
       <c r="D234" s="5">
         <v>2902</v>
@@ -10166,7 +10172,7 @@
         <v>969.27</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:13">
       <c r="A235" s="4">
         <v>39416</v>
       </c>
@@ -10195,7 +10201,7 @@
         <v>208754.9</v>
       </c>
       <c r="J235" s="5">
-        <v>438.26659999999998</v>
+        <v>438.26660000000004</v>
       </c>
       <c r="K235" s="5">
         <v>5457.87</v>
@@ -10207,7 +10213,7 @@
         <v>1061.73</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:13">
       <c r="A236" s="4">
         <v>39447</v>
       </c>
@@ -10215,7 +10221,7 @@
         <v>18665.689999999999</v>
       </c>
       <c r="C236" s="5">
-        <v>16317.5452</v>
+        <v>16317.545199999999</v>
       </c>
       <c r="D236" s="5">
         <v>3380</v>
@@ -10236,7 +10242,7 @@
         <v>229467.6</v>
       </c>
       <c r="J236" s="5">
-        <v>438.97019999999998</v>
+        <v>438.97020000000003</v>
       </c>
       <c r="K236" s="5">
         <v>5994.03</v>
@@ -10248,7 +10254,7 @@
         <v>1153.27</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:13">
       <c r="A237" s="4">
         <v>39478</v>
       </c>
@@ -10256,13 +10262,13 @@
         <v>1589.82</v>
       </c>
       <c r="C237" s="5">
-        <v>1393.7333000000001</v>
+        <v>1393.7332999999999</v>
       </c>
       <c r="D237" s="5">
         <v>323</v>
       </c>
       <c r="E237" s="5">
-        <v>121</v>
+        <v>120.99999999999999</v>
       </c>
       <c r="F237" s="5">
         <v>2.6245959999999999</v>
@@ -10289,7 +10295,7 @@
         <v>95.93</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:13">
       <c r="A238" s="4">
         <v>39507</v>
       </c>
@@ -10297,7 +10303,7 @@
         <v>3078.27</v>
       </c>
       <c r="C238" s="5">
-        <v>2823.1262000000002</v>
+        <v>2823.1261999999997</v>
       </c>
       <c r="D238" s="5">
         <v>595</v>
@@ -10318,7 +10324,7 @@
         <v>33539.199999999997</v>
       </c>
       <c r="J238" s="5">
-        <v>282.13549999999998</v>
+        <v>282.13550000000004</v>
       </c>
       <c r="K238" s="5">
         <v>1036.92</v>
@@ -10330,7 +10336,7 @@
         <v>193.24</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:13">
       <c r="A239" s="4">
         <v>39538</v>
       </c>
@@ -10371,7 +10377,7 @@
         <v>302.73</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:13">
       <c r="A240" s="4">
         <v>39568</v>
       </c>
@@ -10385,7 +10391,7 @@
         <v>1268</v>
       </c>
       <c r="E240" s="5">
-        <v>484</v>
+        <v>483.99999999999994</v>
       </c>
       <c r="F240" s="5">
         <v>9.5477019999999992</v>
@@ -10412,7 +10418,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:13">
       <c r="A241" s="4">
         <v>39599</v>
       </c>
@@ -10453,7 +10459,7 @@
         <v>493.06</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:13">
       <c r="A242" s="4">
         <v>39629</v>
       </c>
@@ -10482,7 +10488,7 @@
         <v>122446.8</v>
       </c>
       <c r="J242" s="5">
-        <v>298.44080000000002</v>
+        <v>298.44079999999997</v>
       </c>
       <c r="K242" s="5">
         <v>3051.88</v>
@@ -10494,7 +10500,7 @@
         <v>585.66999999999996</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:13">
       <c r="A243" s="4">
         <v>39660</v>
       </c>
@@ -10508,7 +10514,7 @@
         <v>2538</v>
       </c>
       <c r="E243" s="5">
-        <v>952</v>
+        <v>952.00000000000011</v>
       </c>
       <c r="F243" s="5">
         <v>26.599498000000001</v>
@@ -10535,7 +10541,7 @@
         <v>674.02</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:13">
       <c r="A244" s="4">
         <v>39691</v>
       </c>
@@ -10564,7 +10570,7 @@
         <v>158483.70000000001</v>
       </c>
       <c r="J244" s="5">
-        <v>406.75670000000002</v>
+        <v>406.75669999999997</v>
       </c>
       <c r="K244" s="5">
         <v>4130.3</v>
@@ -10576,7 +10582,7 @@
         <v>766.73</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:13">
       <c r="A245" s="4">
         <v>39721</v>
       </c>
@@ -10584,7 +10590,7 @@
         <v>14189.7</v>
       </c>
       <c r="C245" s="5">
-        <v>13500.744500000001</v>
+        <v>13500.744499999999</v>
       </c>
       <c r="D245" s="5">
         <v>3128</v>
@@ -10617,7 +10623,7 @@
         <v>868.98</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:13">
       <c r="A246" s="4">
         <v>39752</v>
       </c>
@@ -10646,7 +10652,7 @@
         <v>216070.08</v>
       </c>
       <c r="J246" s="5">
-        <v>395.62540000000001</v>
+        <v>395.62539999999996</v>
       </c>
       <c r="K246" s="5">
         <v>5201.51</v>
@@ -10658,7 +10664,7 @@
         <v>977.61</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:13">
       <c r="A247" s="4">
         <v>39782</v>
       </c>
@@ -10669,7 +10675,7 @@
         <v>16452.2808</v>
       </c>
       <c r="D247" s="5">
-        <v>3522</v>
+        <v>3522.0000000000005</v>
       </c>
       <c r="E247" s="5">
         <v>1502</v>
@@ -10699,7 +10705,7 @@
         <v>1074.3</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:13">
       <c r="A248" s="4">
         <v>39813</v>
       </c>
@@ -10707,10 +10713,10 @@
         <v>18972.82</v>
       </c>
       <c r="C248" s="5">
-        <v>17889.297200000001</v>
+        <v>17889.297199999997</v>
       </c>
       <c r="D248" s="5">
-        <v>3885</v>
+        <v>3884.9999999999995</v>
       </c>
       <c r="E248" s="5">
         <v>1703</v>
@@ -10728,7 +10734,7 @@
         <v>271582.84000000003</v>
       </c>
       <c r="J248" s="5">
-        <v>297.21120000000002</v>
+        <v>297.21119999999996</v>
       </c>
       <c r="K248" s="5">
         <v>6347.54</v>
@@ -10740,7 +10746,7 @@
         <v>1165.3699999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:13">
       <c r="A249" s="4">
         <v>39844</v>
       </c>
@@ -10754,7 +10760,7 @@
         <v>239</v>
       </c>
       <c r="E249" s="5">
-        <v>113</v>
+        <v>112.99999999999999</v>
       </c>
       <c r="F249" s="5">
         <v>2.8228909999999998</v>
@@ -10781,7 +10787,7 @@
         <v>89.95</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:13">
       <c r="A250" s="4">
         <v>39872</v>
       </c>
@@ -10822,7 +10828,7 @@
         <v>187.62</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:13">
       <c r="A251" s="4">
         <v>39903</v>
       </c>
@@ -10863,7 +10869,7 @@
         <v>301.62</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:13">
       <c r="A252" s="4">
         <v>39933</v>
       </c>
@@ -10892,7 +10898,7 @@
         <v>79262.990000000005</v>
       </c>
       <c r="J252" s="5">
-        <v>920.26089999999999</v>
+        <v>920.26089999999988</v>
       </c>
       <c r="K252" s="5">
         <v>2262.3200000000002</v>
@@ -10904,7 +10910,7 @@
         <v>409.46</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:13">
       <c r="A253" s="4">
         <v>39964</v>
       </c>
@@ -10912,7 +10918,7 @@
         <v>7777.7</v>
       </c>
       <c r="C253" s="5">
-        <v>7415.6266999999998</v>
+        <v>7415.6267000000007</v>
       </c>
       <c r="D253" s="5">
         <v>1600</v>
@@ -10945,7 +10951,7 @@
         <v>527.75</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:13">
       <c r="A254" s="4">
         <v>39994</v>
       </c>
@@ -10974,7 +10980,7 @@
         <v>130775.7</v>
       </c>
       <c r="J254" s="5">
-        <v>1638.4509</v>
+        <v>1638.4508999999998</v>
       </c>
       <c r="K254" s="5">
         <v>3480.01</v>
@@ -10986,7 +10992,7 @@
         <v>657.69</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:13">
       <c r="A255" s="4">
         <v>40025</v>
       </c>
@@ -11015,7 +11021,7 @@
         <v>156634.91</v>
       </c>
       <c r="J255" s="5">
-        <v>1409.2315000000001</v>
+        <v>1409.2314999999999</v>
       </c>
       <c r="K255" s="5">
         <v>4121.8</v>
@@ -11027,7 +11033,7 @@
         <v>793.08</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:13">
       <c r="A256" s="4">
         <v>40056</v>
       </c>
@@ -11035,7 +11041,7 @@
         <v>12596.35</v>
       </c>
       <c r="C256" s="5">
-        <v>12886.2907</v>
+        <v>12886.290700000001</v>
       </c>
       <c r="D256" s="5">
         <v>2610</v>
@@ -11068,7 +11074,7 @@
         <v>933.51</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:13">
       <c r="A257" s="4">
         <v>40086</v>
       </c>
@@ -11076,7 +11082,7 @@
         <v>14168.71</v>
       </c>
       <c r="C257" s="5">
-        <v>14606.735199999999</v>
+        <v>14606.735200000001</v>
       </c>
       <c r="D257" s="5">
         <v>2890</v>
@@ -11097,7 +11103,7 @@
         <v>208128.02</v>
       </c>
       <c r="J257" s="5">
-        <v>1354.0123000000001</v>
+        <v>1354.0122999999999</v>
       </c>
       <c r="K257" s="5">
         <v>5300.18</v>
@@ -11109,7 +11115,7 @@
         <v>1077.07</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:13">
       <c r="A258" s="4">
         <v>40117</v>
       </c>
@@ -11150,7 +11156,7 @@
         <v>1213.03</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:13">
       <c r="A259" s="4">
         <v>40147</v>
       </c>
@@ -11191,7 +11197,7 @@
         <v>1343.15</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:13">
       <c r="A260" s="4">
         <v>40178</v>
       </c>
@@ -11199,7 +11205,7 @@
         <v>18948.96</v>
       </c>
       <c r="C260" s="5">
-        <v>20378.927199999998</v>
+        <v>20378.927200000002</v>
       </c>
       <c r="D260" s="5">
         <v>3696</v>
@@ -11232,7 +11238,7 @@
         <v>1479.43</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:13">
       <c r="A261" s="4">
         <v>40209</v>
       </c>
@@ -11243,7 +11249,7 @@
         <v>1710.5839000000001</v>
       </c>
       <c r="D261" s="5">
-        <v>254</v>
+        <v>254.00000000000003</v>
       </c>
       <c r="E261" s="5">
         <v>270</v>
@@ -11261,7 +11267,7 @@
         <v>26368.29</v>
       </c>
       <c r="J261" s="5">
-        <v>1745.8042</v>
+        <v>1745.8041999999998</v>
       </c>
       <c r="K261" s="5">
         <v>622.18759999999997</v>
@@ -11273,7 +11279,7 @@
         <v>134.76859999999999</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:13">
       <c r="A262" s="4">
         <v>40237</v>
       </c>
@@ -11281,7 +11287,7 @@
         <v>3198.1</v>
       </c>
       <c r="C262" s="5">
-        <v>3561.8771999999999</v>
+        <v>3561.8772000000004</v>
       </c>
       <c r="D262" s="5">
         <v>543</v>
@@ -11302,7 +11308,7 @@
         <v>46235.51</v>
       </c>
       <c r="J262" s="5">
-        <v>1398.5213000000001</v>
+        <v>1398.5212999999999</v>
       </c>
       <c r="K262" s="5">
         <v>1191.3</v>
@@ -11314,7 +11320,7 @@
         <v>263.39999999999998</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:13">
       <c r="A263" s="4">
         <v>40268</v>
       </c>
@@ -11322,7 +11328,7 @@
         <v>4818.8</v>
       </c>
       <c r="C263" s="5">
-        <v>5668.1823000000004</v>
+        <v>5668.1822999999995</v>
       </c>
       <c r="D263" s="5">
         <v>865</v>
@@ -11355,7 +11361,7 @@
         <v>402.9</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:13">
       <c r="A264" s="4">
         <v>40298</v>
       </c>
@@ -11369,7 +11375,7 @@
         <v>1205</v>
       </c>
       <c r="E264" s="5">
-        <v>950</v>
+        <v>949.99999999999989</v>
       </c>
       <c r="F264" s="5">
         <v>45.077823000000002</v>
@@ -11384,7 +11390,7 @@
         <v>100811.11</v>
       </c>
       <c r="J264" s="5">
-        <v>1505.8888999999999</v>
+        <v>1505.8889000000001</v>
       </c>
       <c r="K264" s="5">
         <v>2458</v>
@@ -11396,7 +11402,7 @@
         <v>549.5</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:13">
       <c r="A265" s="4">
         <v>40329</v>
       </c>
@@ -11437,7 +11443,7 @@
         <v>695.7</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:13">
       <c r="A266" s="4">
         <v>40359</v>
       </c>
@@ -11445,7 +11451,7 @@
         <v>9847.7999999999993</v>
       </c>
       <c r="C266" s="5">
-        <v>11796.462</v>
+        <v>11796.462000000001</v>
       </c>
       <c r="D266" s="5">
         <v>1854</v>
@@ -11478,7 +11484,7 @@
         <v>842.2</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:13">
       <c r="A267" s="4">
         <v>40390</v>
       </c>
@@ -11486,7 +11492,7 @@
         <v>11570.4</v>
       </c>
       <c r="C267" s="5">
-        <v>13696.6955</v>
+        <v>13696.695500000002</v>
       </c>
       <c r="D267" s="5">
         <v>2132</v>
@@ -11519,7 +11525,7 @@
         <v>1001.2</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:13">
       <c r="A268" s="4">
         <v>40421</v>
       </c>
@@ -11527,7 +11533,7 @@
         <v>13311</v>
       </c>
       <c r="C268" s="5">
-        <v>15786.8444</v>
+        <v>15786.844400000002</v>
       </c>
       <c r="D268" s="5">
         <v>2388</v>
@@ -11560,7 +11566,7 @@
         <v>1151.0999999999999</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:13">
       <c r="A269" s="4">
         <v>40451</v>
       </c>
@@ -11601,7 +11607,7 @@
         <v>1300.7</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:13">
       <c r="A270" s="4">
         <v>40482</v>
       </c>
@@ -11642,7 +11648,7 @@
         <v>1443.4</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:13">
       <c r="A271" s="4">
         <v>40512</v>
       </c>
@@ -11653,7 +11659,7 @@
         <v>21845.436600000001</v>
       </c>
       <c r="D271" s="5">
-        <v>3292</v>
+        <v>3291.9999999999995</v>
       </c>
       <c r="E271" s="5">
         <v>2499</v>
@@ -11683,7 +11689,7 @@
         <v>1579.1</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:13">
       <c r="A272" s="4">
         <v>40543</v>
       </c>
@@ -11694,7 +11700,7 @@
         <v>23931.143499999998</v>
       </c>
       <c r="D272" s="5">
-        <v>3688</v>
+        <v>3688.0000000000005</v>
       </c>
       <c r="E272" s="5">
         <v>2688</v>
@@ -11712,7 +11718,7 @@
         <v>0</v>
       </c>
       <c r="J272" s="5">
-        <v>1980.8525999999999</v>
+        <v>1980.8526000000002</v>
       </c>
       <c r="K272" s="5">
         <v>7675.3</v>
@@ -11724,7 +11730,7 @@
         <v>1714.7</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:13">
       <c r="A273" s="4">
         <v>40574</v>
       </c>
@@ -11738,7 +11744,7 @@
         <v>385</v>
       </c>
       <c r="E273" s="5">
-        <v>214</v>
+        <v>214.00000000000003</v>
       </c>
       <c r="F273" s="5">
         <v>19.095288</v>
@@ -11765,7 +11771,7 @@
         <v>141.8937</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:13">
       <c r="A274" s="4">
         <v>40602</v>
       </c>
@@ -11806,7 +11812,7 @@
         <v>283.89999999999998</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:13">
       <c r="A275" s="4">
         <v>40633</v>
       </c>
@@ -11847,7 +11853,7 @@
         <v>429.6</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:13">
       <c r="A276" s="4">
         <v>40663</v>
       </c>
@@ -11888,7 +11894,7 @@
         <v>584.20000000000005</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:13">
       <c r="A277" s="4">
         <v>40694</v>
       </c>
@@ -11896,7 +11902,7 @@
         <v>8574.4</v>
       </c>
       <c r="C277" s="5">
-        <v>10650.899100000001</v>
+        <v>10650.899099999999</v>
       </c>
       <c r="D277" s="5">
         <v>1764</v>
@@ -11929,7 +11935,7 @@
         <v>749.4</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:13">
       <c r="A278" s="4">
         <v>40724</v>
       </c>
@@ -11970,7 +11976,7 @@
         <v>897.7</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:13">
       <c r="A279" s="4">
         <v>40755</v>
       </c>
@@ -11984,7 +11990,7 @@
         <v>2410</v>
       </c>
       <c r="E279" s="5">
-        <v>1541</v>
+        <v>1541.0000000000002</v>
       </c>
       <c r="F279" s="5">
         <v>165.14857900000001</v>
@@ -12011,7 +12017,7 @@
         <v>1066.7</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:13">
       <c r="A280" s="4">
         <v>40786</v>
       </c>
@@ -12052,7 +12058,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:13">
       <c r="A281" s="4">
         <v>40816</v>
       </c>
@@ -12063,7 +12069,7 @@
         <v>18713.2428</v>
       </c>
       <c r="D281" s="5">
-        <v>3031</v>
+        <v>3031.0000000000005</v>
       </c>
       <c r="E281" s="5">
         <v>1976</v>
@@ -12093,7 +12099,7 @@
         <v>1405.6</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:13">
       <c r="A282" s="4">
         <v>40847</v>
       </c>
@@ -12101,10 +12107,10 @@
         <v>17024</v>
       </c>
       <c r="C282" s="5">
-        <v>20793.459200000001</v>
+        <v>20793.459199999998</v>
       </c>
       <c r="D282" s="5">
-        <v>3322</v>
+        <v>3321.9999999999995</v>
       </c>
       <c r="E282" s="5">
         <v>2135</v>
@@ -12134,7 +12140,7 @@
         <v>1552.9</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:13">
       <c r="A283" s="4">
         <v>40877</v>
       </c>
@@ -12142,7 +12148,7 @@
         <v>18670.099999999999</v>
       </c>
       <c r="C283" s="5">
-        <v>23062.941900000002</v>
+        <v>23062.941899999998</v>
       </c>
       <c r="D283" s="5">
         <v>3656</v>
@@ -12175,7 +12181,7 @@
         <v>1716.1</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:13">
       <c r="A284" s="4">
         <v>40908</v>
       </c>
@@ -12186,7 +12192,7 @@
         <v>25254.915099999998</v>
       </c>
       <c r="D284" s="5">
-        <v>4060</v>
+        <v>4059.9999999999995</v>
       </c>
       <c r="E284" s="5">
         <v>2570</v>
@@ -12216,7 +12222,7 @@
         <v>1879.8</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:13">
       <c r="A285" s="4">
         <v>40939</v>
       </c>
@@ -12257,7 +12263,7 @@
         <v>176.7972</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:13">
       <c r="A286" s="4">
         <v>40968</v>
       </c>
@@ -12298,7 +12304,7 @@
         <v>344.4</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:13">
       <c r="A287" s="4">
         <v>40999</v>
       </c>
@@ -12339,7 +12345,7 @@
         <v>509.5</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:13">
       <c r="A288" s="4">
         <v>41029</v>
       </c>
@@ -12380,7 +12386,7 @@
         <v>677.2</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:13">
       <c r="A289" s="4">
         <v>41060</v>
       </c>
@@ -12391,7 +12397,7 @@
         <v>11833.7523</v>
       </c>
       <c r="D289" s="5">
-        <v>1729</v>
+        <v>1729.0000000000002</v>
       </c>
       <c r="E289" s="5">
         <v>980</v>
@@ -12421,7 +12427,7 @@
         <v>853.7</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:13">
       <c r="A290" s="4">
         <v>41090</v>
       </c>
@@ -12429,7 +12435,7 @@
         <v>10055.4</v>
       </c>
       <c r="C290" s="5">
-        <v>14005.874900000001</v>
+        <v>14005.874899999999</v>
       </c>
       <c r="D290" s="5">
         <v>2022</v>
@@ -12462,7 +12468,7 @@
         <v>1017.4</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:13">
       <c r="A291" s="4">
         <v>41121</v>
       </c>
@@ -12503,7 +12509,7 @@
         <v>1188.4000000000001</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:13">
       <c r="A292" s="4">
         <v>41152</v>
       </c>
@@ -12517,7 +12523,7 @@
         <v>2555</v>
       </c>
       <c r="E292" s="5">
-        <v>1573</v>
+        <v>1573.0000000000002</v>
       </c>
       <c r="F292" s="5">
         <v>246.927729</v>
@@ -12544,7 +12550,7 @@
         <v>1373.2</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:13">
       <c r="A293" s="4">
         <v>41182</v>
       </c>
@@ -12558,7 +12564,7 @@
         <v>2897</v>
       </c>
       <c r="E293" s="5">
-        <v>1780</v>
+        <v>1780.0000000000002</v>
       </c>
       <c r="F293" s="5">
         <v>285.087808</v>
@@ -12585,7 +12591,7 @@
         <v>1566.2</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:13">
       <c r="A294" s="4">
         <v>41213</v>
       </c>
@@ -12626,7 +12632,7 @@
         <v>1752.7</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:13">
       <c r="A295" s="4">
         <v>41243</v>
       </c>
@@ -12667,7 +12673,7 @@
         <v>1941.3</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:13">
       <c r="A296" s="4">
         <v>41274</v>
       </c>
@@ -12675,7 +12681,7 @@
         <v>20747.8</v>
       </c>
       <c r="C296" s="5">
-        <v>27109</v>
+        <v>27108.999999999996</v>
       </c>
       <c r="D296" s="5">
         <v>3982</v>
@@ -12708,7 +12714,7 @@
         <v>2131.4</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:13">
       <c r="A297" s="4">
         <v>41305</v>
       </c>
@@ -12749,7 +12755,7 @@
         <v>197.3</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:13">
       <c r="A298" s="4">
         <v>41333</v>
       </c>
@@ -12790,7 +12796,7 @@
         <v>384.1</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:13">
       <c r="A299" s="4">
         <v>41364</v>
       </c>
@@ -12831,7 +12837,7 @@
         <v>582.1</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:13">
       <c r="A300" s="4">
         <v>41394</v>
       </c>
@@ -12872,7 +12878,7 @@
         <v>777.3</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:13">
       <c r="A301" s="4">
         <v>41425</v>
       </c>
@@ -12913,7 +12919,7 @@
         <v>991.1</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:13">
       <c r="A302" s="4">
         <v>41455</v>
       </c>
@@ -12921,7 +12927,7 @@
         <v>10361.459999999999</v>
       </c>
       <c r="C302" s="5">
-        <v>13817</v>
+        <v>13817.000000000002</v>
       </c>
       <c r="D302" s="5">
         <v>2160</v>
@@ -12954,7 +12960,7 @@
         <v>1190.83</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:13">
       <c r="A303" s="4">
         <v>41486</v>
       </c>
@@ -12995,7 +13001,7 @@
         <v>1395.05</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:13">
       <c r="A304" s="4">
         <v>41517</v>
       </c>
@@ -13036,7 +13042,7 @@
         <v>1621.39</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:13">
       <c r="A305" s="4">
         <v>41547</v>
       </c>
@@ -13077,7 +13083,7 @@
         <v>1845.69</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:13">
       <c r="A306" s="4">
         <v>41578</v>
       </c>
@@ -13088,7 +13094,7 @@
         <v>23162</v>
       </c>
       <c r="D306" s="5">
-        <v>3338</v>
+        <v>3338.0000000000005</v>
       </c>
       <c r="E306" s="5">
         <v>2376</v>
@@ -13118,7 +13124,7 @@
         <v>2078.4499999999998</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:13">
       <c r="A307" s="4">
         <v>41608</v>
       </c>
@@ -13159,7 +13165,7 @@
         <v>2284.65</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:13">
       <c r="A308" s="4">
         <v>41639</v>
       </c>
@@ -13167,7 +13173,7 @@
         <v>20812.87</v>
       </c>
       <c r="C308" s="5">
-        <v>28195</v>
+        <v>28194.999999999996</v>
       </c>
       <c r="D308" s="5">
         <v>3959</v>
@@ -13200,7 +13206,7 @@
         <v>2509.64</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:13">
       <c r="A309" s="4">
         <v>41670</v>
       </c>
@@ -13241,7 +13247,7 @@
         <v>229.19</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:13">
       <c r="A310" s="4">
         <v>41698</v>
       </c>
@@ -13249,7 +13255,7 @@
         <v>3369.8</v>
       </c>
       <c r="C310" s="5">
-        <v>5120.4088000000002</v>
+        <v>5120.4087999999992</v>
       </c>
       <c r="D310" s="5">
         <v>617.54520000000002</v>
@@ -13282,7 +13288,7 @@
         <v>459.6</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:13">
       <c r="A311" s="4">
         <v>41729</v>
       </c>
@@ -13290,13 +13296,13 @@
         <v>5133.7</v>
       </c>
       <c r="C311" s="5">
-        <v>7472.4197000000004</v>
+        <v>7472.4196999999995</v>
       </c>
       <c r="D311" s="5">
         <v>854.21360000000004</v>
       </c>
       <c r="E311" s="5">
-        <v>700.91</v>
+        <v>700.91000000000008</v>
       </c>
       <c r="F311" s="5">
         <v>145.59618900000001</v>
@@ -13323,7 +13329,7 @@
         <v>703.4</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:13">
       <c r="A312" s="4">
         <v>41759</v>
       </c>
@@ -13337,7 +13343,7 @@
         <v>1108.6472000000001</v>
       </c>
       <c r="E312" s="5">
-        <v>920.4547</v>
+        <v>920.45470000000012</v>
       </c>
       <c r="F312" s="5">
         <v>189.894441</v>
@@ -13352,7 +13358,7 @@
         <v>123125.05</v>
       </c>
       <c r="J312" s="5">
-        <v>2710.6033000000002</v>
+        <v>2710.6032999999998</v>
       </c>
       <c r="K312" s="5">
         <v>3542</v>
@@ -13364,7 +13370,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:13">
       <c r="A313" s="4">
         <v>41790</v>
       </c>
@@ -13372,7 +13378,7 @@
         <v>8606.9</v>
       </c>
       <c r="C313" s="5">
-        <v>12869.172699999999</v>
+        <v>12869.172700000001</v>
       </c>
       <c r="D313" s="5">
         <v>1289.9547</v>
@@ -13405,7 +13411,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:13">
       <c r="A314" s="4">
         <v>41820</v>
       </c>
@@ -13419,7 +13425,7 @@
         <v>1526.1394</v>
       </c>
       <c r="E314" s="5">
-        <v>1366.8717999999999</v>
+        <v>1366.8718000000001</v>
       </c>
       <c r="F314" s="5">
         <v>287.65027900000001</v>
@@ -13446,7 +13452,7 @@
         <v>1441.67</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:13">
       <c r="A315" s="4">
         <v>41851</v>
       </c>
@@ -13487,7 +13493,7 @@
         <v>1698.53</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:13">
       <c r="A316" s="4">
         <v>41882</v>
       </c>
@@ -13516,7 +13522,7 @@
         <v>256776.21</v>
       </c>
       <c r="J316" s="5">
-        <v>1886.3669</v>
+        <v>1886.3668999999998</v>
       </c>
       <c r="K316" s="5">
         <v>7169.9</v>
@@ -13528,7 +13534,7 @@
         <v>1972.83</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:13">
       <c r="A317" s="4">
         <v>41912</v>
       </c>
@@ -13536,7 +13542,7 @@
         <v>15608.98</v>
       </c>
       <c r="C317" s="5">
-        <v>22850.463100000001</v>
+        <v>22850.463099999997</v>
       </c>
       <c r="D317" s="5">
         <v>2212.5533</v>
@@ -13557,7 +13563,7 @@
         <v>291381.63</v>
       </c>
       <c r="J317" s="5">
-        <v>2115.8604999999998</v>
+        <v>2115.8605000000002</v>
       </c>
       <c r="K317" s="5">
         <v>8073.93</v>
@@ -13569,7 +13575,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:13">
       <c r="A318" s="4">
         <v>41943</v>
       </c>
@@ -13610,7 +13616,7 @@
         <v>2481.8000000000002</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:13">
       <c r="A319" s="4">
         <v>41973</v>
       </c>
@@ -13651,7 +13657,7 @@
         <v>2727.9</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:13">
       <c r="A320" s="4">
         <v>42004</v>
       </c>
@@ -13659,13 +13665,13 @@
         <v>21142.9</v>
       </c>
       <c r="C320" s="5">
-        <v>30837.655599999998</v>
+        <v>30837.655600000002</v>
       </c>
       <c r="D320" s="5">
         <v>2999.6581999999999</v>
       </c>
       <c r="E320" s="5">
-        <v>2967.3526000000002</v>
+        <v>2967.3525999999997</v>
       </c>
       <c r="F320" s="5">
         <v>596.55113300000005</v>
@@ -13692,7 +13698,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:13">
       <c r="A321" s="4">
         <v>42035</v>
       </c>
@@ -13703,7 +13709,7 @@
         <v>2798.0636</v>
       </c>
       <c r="D321" s="5">
-        <v>234.6645</v>
+        <v>234.66449999999998</v>
       </c>
       <c r="E321" s="5">
         <v>207.4366</v>
@@ -13733,7 +13739,7 @@
         <v>279.33</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:13">
       <c r="A322" s="4">
         <v>42063</v>
       </c>
@@ -13774,7 +13780,7 @@
         <v>555.30999999999995</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:13">
       <c r="A323" s="4">
         <v>42094</v>
       </c>
@@ -13815,7 +13821,7 @@
         <v>866.8</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:13">
       <c r="A324" s="4">
         <v>42124</v>
       </c>
@@ -13826,10 +13832,10 @@
         <v>11062.427900000001</v>
       </c>
       <c r="D324" s="5">
-        <v>1036.9187999999999</v>
+        <v>1036.9188000000001</v>
       </c>
       <c r="E324" s="5">
-        <v>929.33640000000003</v>
+        <v>929.33639999999991</v>
       </c>
       <c r="F324" s="5">
         <v>215.35996599999999</v>
@@ -13856,7 +13862,7 @@
         <v>1157.3</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:13">
       <c r="A325" s="4">
         <v>42155</v>
       </c>
@@ -13864,10 +13870,10 @@
         <v>8791.6</v>
       </c>
       <c r="C325" s="5">
-        <v>13386.7147</v>
+        <v>13386.714699999999</v>
       </c>
       <c r="D325" s="5">
-        <v>1268.8782000000001</v>
+        <v>1268.8781999999999</v>
       </c>
       <c r="E325" s="5">
         <v>1172.9873</v>
@@ -13897,7 +13903,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:13">
       <c r="A326" s="4">
         <v>42185</v>
       </c>
@@ -13938,7 +13944,7 @@
         <v>1758.9</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:13">
       <c r="A327" s="4">
         <v>42216</v>
       </c>
@@ -13946,10 +13952,10 @@
         <v>12413.5</v>
       </c>
       <c r="C327" s="5">
-        <v>19408.158800000001</v>
+        <v>19408.158799999997</v>
       </c>
       <c r="D327" s="5">
-        <v>1817.2937999999999</v>
+        <v>1817.2938000000001</v>
       </c>
       <c r="E327" s="5">
         <v>1778.6461999999999</v>
@@ -13979,7 +13985,7 @@
         <v>2071.9</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:13">
       <c r="A328" s="4">
         <v>42247</v>
       </c>
@@ -13990,7 +13996,7 @@
         <v>22067.333699999999</v>
       </c>
       <c r="D328" s="5">
-        <v>2048.6215000000002</v>
+        <v>2048.6214999999997</v>
       </c>
       <c r="E328" s="5">
         <v>2090.0421999999999</v>
@@ -14008,7 +14014,7 @@
         <v>241400</v>
       </c>
       <c r="J328" s="5">
-        <v>1748.7129</v>
+        <v>1748.7128999999998</v>
       </c>
       <c r="K328" s="5">
         <v>7992.3</v>
@@ -14020,7 +14026,7 @@
         <v>2384.4</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:13">
       <c r="A329" s="4">
         <v>42277</v>
       </c>
@@ -14028,7 +14034,7 @@
         <v>16084</v>
       </c>
       <c r="C329" s="5">
-        <v>24861.987400000002</v>
+        <v>24861.987399999998</v>
       </c>
       <c r="D329" s="5">
         <v>2318.77</v>
@@ -14061,7 +14067,7 @@
         <v>2692.4</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:13">
       <c r="A330" s="4">
         <v>42308</v>
       </c>
@@ -14069,7 +14075,7 @@
         <v>17892.716799999998</v>
       </c>
       <c r="C330" s="5">
-        <v>27497.472099999999</v>
+        <v>27497.472100000003</v>
       </c>
       <c r="D330" s="5">
         <v>2517.7239</v>
@@ -14102,7 +14108,7 @@
         <v>3010.2764999999999</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:13">
       <c r="A331" s="4">
         <v>42338</v>
       </c>
@@ -14143,7 +14149,7 @@
         <v>3323.6</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:13">
       <c r="A332" s="4">
         <v>42369</v>
       </c>
@@ -14157,7 +14163,7 @@
         <v>2989.7892000000002</v>
       </c>
       <c r="E332" s="5">
-        <v>3615.4872999999998</v>
+        <v>3615.4873000000002</v>
       </c>
       <c r="F332" s="5">
         <v>616.70409400000005</v>
@@ -14184,7 +14190,7 @@
         <v>3658.6244000000002</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:13">
       <c r="A333" s="4">
         <v>42400</v>
       </c>
@@ -14225,7 +14231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:13">
       <c r="A334" s="4">
         <v>42429</v>
       </c>
@@ -14266,7 +14272,7 @@
         <v>614.79999999999995</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:13">
       <c r="A335" s="4">
         <v>42460</v>
       </c>
@@ -14277,7 +14283,7 @@
         <v>9110</v>
       </c>
       <c r="D335" s="5">
-        <v>775</v>
+        <v>774.99999999999989</v>
       </c>
       <c r="E335" s="5">
         <v>975</v>
@@ -14307,7 +14313,7 @@
         <v>947.48270000000002</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:13">
       <c r="A336" s="4">
         <v>42490</v>
       </c>
@@ -14348,7 +14354,7 @@
         <v>1265.4000000000001</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:13">
       <c r="A337" s="4">
         <v>42521</v>
       </c>
@@ -14389,7 +14395,7 @@
         <v>1596.3</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:13">
       <c r="A338" s="4">
         <v>42551</v>
       </c>
@@ -14430,7 +14436,7 @@
         <v>1928.7</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:13">
       <c r="A339" s="4">
         <v>42582</v>
       </c>
@@ -14441,7 +14447,7 @@
         <v>21760</v>
       </c>
       <c r="D339" s="5">
-        <v>1755</v>
+        <v>1754.9999999999998</v>
       </c>
       <c r="E339" s="5">
         <v>2603</v>
@@ -14471,7 +14477,7 @@
         <v>2272.8000000000002</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:13">
       <c r="A340" s="4">
         <v>42613</v>
       </c>
@@ -14512,7 +14518,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:13">
       <c r="A341" s="4">
         <v>42643</v>
       </c>
@@ -14553,7 +14559,7 @@
         <v>2945.9</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:13">
       <c r="A342" s="4">
         <v>42674</v>
       </c>
@@ -14561,7 +14567,7 @@
         <v>16682</v>
       </c>
       <c r="C342" s="5">
-        <v>31228</v>
+        <v>31228.000000000004</v>
       </c>
       <c r="D342" s="5">
         <v>2326</v>
@@ -14594,7 +14600,7 @@
         <v>3298.3</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:13">
       <c r="A343" s="4">
         <v>42704</v>
       </c>
@@ -14635,7 +14641,7 @@
         <v>3644.8</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:13">
       <c r="A344" s="4">
         <v>42735</v>
       </c>
@@ -14676,7 +14682,7 @@
         <v>3983.8</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:13">
       <c r="A345" s="4">
         <v>42766</v>
       </c>
@@ -14684,7 +14690,7 @@
         <v>0</v>
       </c>
       <c r="C345" s="5">
-        <v>3403</v>
+        <v>3402.9999999999995</v>
       </c>
       <c r="D345" s="5">
         <v>260</v>
@@ -14717,7 +14723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:13">
       <c r="A346" s="4">
         <v>42794</v>
       </c>
@@ -14758,7 +14764,7 @@
         <v>687.4</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:13">
       <c r="A347" s="4">
         <v>42825</v>
       </c>
@@ -14799,7 +14805,7 @@
         <v>1036.4000000000001</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:13">
       <c r="A348" s="4">
         <v>42855</v>
       </c>
@@ -14810,7 +14816,7 @@
         <v>13912</v>
       </c>
       <c r="D348" s="5">
-        <v>1017</v>
+        <v>1017.0000000000001</v>
       </c>
       <c r="E348" s="5">
         <v>1544</v>
@@ -14840,7 +14846,7 @@
         <v>1361.5</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:13">
       <c r="A349" s="4">
         <v>42886</v>
       </c>
@@ -14854,7 +14860,7 @@
         <v>1269</v>
       </c>
       <c r="E349" s="5">
-        <v>1947</v>
+        <v>1946.9999999999998</v>
       </c>
       <c r="F349" s="5">
         <v>355.05369999999999</v>
@@ -14881,7 +14887,7 @@
         <v>1699.8</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:13">
       <c r="A350" s="4">
         <v>42916</v>
       </c>
@@ -14922,7 +14928,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:13">
       <c r="A351" s="4">
         <v>42947</v>
       </c>
@@ -14930,7 +14936,7 @@
         <v>11279</v>
       </c>
       <c r="C351" s="5">
-        <v>24708</v>
+        <v>24708.000000000004</v>
       </c>
       <c r="D351" s="5">
         <v>1738</v>
@@ -14963,7 +14969,7 @@
         <v>2387.9</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:13">
       <c r="A352" s="4">
         <v>42978</v>
       </c>
@@ -14974,7 +14980,7 @@
         <v>28105</v>
       </c>
       <c r="D352" s="5">
-        <v>2011</v>
+        <v>2010.9999999999998</v>
       </c>
       <c r="E352" s="5">
         <v>3281</v>
@@ -15004,7 +15010,7 @@
         <v>2751.4</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:13">
       <c r="A353" s="4">
         <v>43008</v>
       </c>
@@ -15018,7 +15024,7 @@
         <v>2241</v>
       </c>
       <c r="E353" s="5">
-        <v>3663</v>
+        <v>3662.9999999999995</v>
       </c>
       <c r="F353" s="5">
         <v>673.87379999999996</v>
@@ -15045,7 +15051,7 @@
         <v>3140.7</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:13">
       <c r="A354" s="4">
         <v>43039</v>
       </c>
@@ -15086,7 +15092,7 @@
         <v>3524.4</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:13">
       <c r="A355" s="4">
         <v>43069</v>
       </c>
@@ -15127,7 +15133,7 @@
         <v>3883.7</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:13">
       <c r="A356" s="4">
         <v>43100</v>
       </c>
@@ -15168,7 +15174,7 @@
         <v>4230.8999999999996</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:13">
       <c r="A357" s="4">
         <v>43131</v>
       </c>
@@ -15176,13 +15182,13 @@
         <v>0</v>
       </c>
       <c r="C357" s="5">
-        <v>4064</v>
+        <v>4064.0000000000005</v>
       </c>
       <c r="D357" s="5">
         <v>287</v>
       </c>
       <c r="E357" s="5">
-        <v>412</v>
+        <v>412.00000000000006</v>
       </c>
       <c r="F357" s="5">
         <v>108.0497</v>
@@ -15209,7 +15215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:13">
       <c r="A358" s="4">
         <v>43159</v>
       </c>
@@ -15223,7 +15229,7 @@
         <v>549</v>
       </c>
       <c r="E358" s="5">
-        <v>761</v>
+        <v>761.00000000000011</v>
       </c>
       <c r="F358" s="5">
         <v>203.6867</v>
@@ -15250,7 +15256,7 @@
         <v>706.5</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:13">
       <c r="A359" s="4">
         <v>43190</v>
       </c>
@@ -15261,7 +15267,7 @@
         <v>11207</v>
       </c>
       <c r="D359" s="5">
-        <v>824</v>
+        <v>824.00000000000011</v>
       </c>
       <c r="E359" s="5">
         <v>1430</v>
@@ -15291,7 +15297,7 @@
         <v>1149.5</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:13">
       <c r="A360" s="4">
         <v>43220</v>
       </c>
@@ -15299,7 +15305,7 @@
         <v>6225.3</v>
       </c>
       <c r="C360" s="5">
-        <v>15143</v>
+        <v>15142.999999999998</v>
       </c>
       <c r="D360" s="5">
         <v>1125</v>
@@ -15332,7 +15338,7 @@
         <v>1535.7</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:13">
       <c r="A361" s="4">
         <v>43251</v>
       </c>
@@ -15373,7 +15379,7 @@
         <v>1943.2</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:13">
       <c r="A362" s="4">
         <v>43281</v>
       </c>
@@ -15414,7 +15420,7 @@
         <v>2347.3000000000002</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:13">
       <c r="A363" s="4">
         <v>43312</v>
       </c>
@@ -15425,7 +15431,7 @@
         <v>26083</v>
       </c>
       <c r="D363" s="5">
-        <v>1915</v>
+        <v>1914.9999999999998</v>
       </c>
       <c r="E363" s="5">
         <v>3490</v>
@@ -15455,7 +15461,7 @@
         <v>2761.1</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:13">
       <c r="A364" s="4">
         <v>43343</v>
       </c>
@@ -15463,13 +15469,13 @@
         <v>12595</v>
       </c>
       <c r="C364" s="5">
-        <v>29919</v>
+        <v>29918.999999999996</v>
       </c>
       <c r="D364" s="5">
         <v>2185</v>
       </c>
       <c r="E364" s="5">
-        <v>4022</v>
+        <v>4021.9999999999995</v>
       </c>
       <c r="F364" s="5">
         <v>794.72310000000004</v>
@@ -15496,7 +15502,7 @@
         <v>3172.4</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:13">
       <c r="A365" s="4">
         <v>43373</v>
       </c>
@@ -15537,7 +15543,7 @@
         <v>3591.4</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:13">
       <c r="A366" s="4">
         <v>43404</v>
       </c>
@@ -15578,7 +15584,7 @@
         <v>3985.5</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:13">
       <c r="A367" s="4">
         <v>43434</v>
       </c>
@@ -15607,7 +15613,7 @@
         <v>321414</v>
       </c>
       <c r="J367" s="5">
-        <v>1915</v>
+        <v>1914.9999999999998</v>
       </c>
       <c r="K367" s="5">
         <v>12815.8</v>
@@ -15619,7 +15625,7 @@
         <v>4370</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:13">
       <c r="A368" s="4">
         <v>43465</v>
       </c>
@@ -15660,7 +15666,7 @@
         <v>4770.3</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:13">
       <c r="A369" s="4">
         <v>43496</v>
       </c>
@@ -15701,7 +15707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:13">
       <c r="A370" s="4">
         <v>43524</v>
       </c>
@@ -15742,7 +15748,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:13">
       <c r="A371" s="4">
         <v>43555</v>
       </c>
@@ -15753,7 +15759,7 @@
         <v>12117</v>
       </c>
       <c r="D371" s="5">
-        <v>872</v>
+        <v>871.99999999999989</v>
       </c>
       <c r="E371" s="5">
         <v>1643</v>
@@ -15783,7 +15789,7 @@
         <v>1218.5999999999999</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:13">
       <c r="A372" s="4">
         <v>43585</v>
       </c>
@@ -15824,7 +15830,7 @@
         <v>1637.7</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:13">
       <c r="A373" s="4">
         <v>43616</v>
       </c>
@@ -15865,7 +15871,7 @@
         <v>2065.3000000000002</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:13">
       <c r="A374" s="4">
         <v>43646</v>
       </c>
@@ -15876,7 +15882,7 @@
         <v>24461</v>
       </c>
       <c r="D374" s="5">
-        <v>1678</v>
+        <v>1677.9999999999998</v>
       </c>
       <c r="E374" s="5">
         <v>3252</v>
@@ -15906,7 +15912,7 @@
         <v>2509.8000000000002</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:13">
       <c r="A375" s="4">
         <v>43677</v>
       </c>
@@ -15917,10 +15923,10 @@
         <v>28564</v>
       </c>
       <c r="D375" s="5">
-        <v>1840</v>
+        <v>1840.0000000000002</v>
       </c>
       <c r="E375" s="5">
-        <v>3800</v>
+        <v>3799.9999999999995</v>
       </c>
       <c r="F375" s="5">
         <v>761.091093</v>
@@ -15947,7 +15953,7 @@
         <v>2954.8</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:13">
       <c r="A376" s="4">
         <v>43708</v>
       </c>
@@ -15988,7 +15994,7 @@
         <v>3429.5</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:13">
       <c r="A377" s="4">
         <v>43738</v>
       </c>
@@ -16029,7 +16035,7 @@
         <v>3903</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:13">
       <c r="A378" s="4">
         <v>43769</v>
       </c>
@@ -16070,7 +16076,7 @@
         <v>4375.1000000000004</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:13">
       <c r="A379" s="4">
         <v>43799</v>
       </c>
@@ -16111,7 +16117,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:13">
       <c r="A380" s="4">
         <v>43830</v>
       </c>
@@ -16152,7 +16158,7 @@
         <v>5272.6</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:13">
       <c r="A381" s="4">
         <v>43861</v>
       </c>
@@ -16193,7 +16199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:13">
       <c r="A382" s="4">
         <v>43890</v>
       </c>
@@ -16234,7 +16240,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:13">
       <c r="A383" s="4">
         <v>43921</v>
       </c>
@@ -16275,7 +16281,7 @@
         <v>1048.9000000000001</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:13">
       <c r="A384" s="4">
         <v>43951</v>
       </c>
@@ -16304,7 +16310,7 @@
         <v>115243.7</v>
       </c>
       <c r="J384" s="5">
-        <v>3095</v>
+        <v>3095.0000000000005</v>
       </c>
       <c r="K384" s="5">
         <v>3991</v>
@@ -16316,7 +16322,7 @@
         <v>1291.3</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:13">
       <c r="A385" s="4">
         <v>43982</v>
       </c>
@@ -16357,7 +16363,7 @@
         <v>1580.7</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:13">
       <c r="A386" s="4">
         <v>44012</v>
       </c>
@@ -16398,7 +16404,7 @@
         <v>1895.8</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:13">
       <c r="A387" s="4">
         <v>44043</v>
       </c>
@@ -16412,7 +16418,7 @@
         <v>1882</v>
       </c>
       <c r="E387" s="5">
-        <v>3697</v>
+        <v>3697.0000000000005</v>
       </c>
       <c r="F387" s="5">
         <v>774.55130499999996</v>
@@ -16439,7 +16445,7 @@
         <v>2227.9</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:13">
       <c r="A388" s="4">
         <v>44074</v>
       </c>
@@ -16480,7 +16486,7 @@
         <v>2570.1</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:13">
       <c r="A389" s="4">
         <v>44104</v>
       </c>
@@ -16509,7 +16515,7 @@
         <v>278715.3</v>
       </c>
       <c r="J389" s="5">
-        <v>1868</v>
+        <v>1867.9999999999998</v>
       </c>
       <c r="K389" s="5">
         <v>9636.4</v>
@@ -16521,7 +16527,7 @@
         <v>2931.7</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:13">
       <c r="A390" s="4">
         <v>44135</v>
       </c>
@@ -16562,7 +16568,7 @@
         <v>3306.3</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:13">
       <c r="A391" s="4">
         <v>44165</v>
       </c>
@@ -16603,7 +16609,7 @@
         <v>3674.2</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:13">
       <c r="A392" s="4">
         <v>44196</v>
       </c>
@@ -16644,7 +16650,7 @@
         <v>4049.4</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:13">
       <c r="A393" s="4">
         <v>44227</v>
       </c>
@@ -16685,7 +16691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:13">
       <c r="A394" s="4">
         <v>44255</v>
       </c>
@@ -16726,7 +16732,7 @@
         <v>681.8</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:13">
       <c r="A395" s="4">
         <v>44286</v>
       </c>
@@ -16767,7 +16773,7 @@
         <v>1045.7</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:13">
       <c r="A396" s="4">
         <v>44316</v>
       </c>
@@ -16808,7 +16814,7 @@
         <v>1439.6</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:13">
       <c r="A397" s="4">
         <v>44347</v>
       </c>
@@ -16849,7 +16855,7 @@
         <v>1871.5</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:13">
       <c r="A398" s="4">
         <v>44377</v>
       </c>
@@ -16857,7 +16863,7 @@
         <v>9932.2000000000007</v>
       </c>
       <c r="C398" s="5">
-        <v>26066</v>
+        <v>26066.000000000004</v>
       </c>
       <c r="D398" s="5">
         <v>1251</v>
@@ -16890,7 +16896,7 @@
         <v>2283.4</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:13">
       <c r="A399" s="4">
         <v>44408</v>
       </c>
@@ -16898,7 +16904,7 @@
         <v>11621</v>
       </c>
       <c r="C399" s="5">
-        <v>30183</v>
+        <v>30183.000000000004</v>
       </c>
       <c r="D399" s="5">
         <v>1504</v>
@@ -16931,7 +16937,7 @@
         <v>2632.6</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:13">
       <c r="A400" s="4">
         <v>44439</v>
       </c>
@@ -16972,7 +16978,7 @@
         <v>2912.6</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:13">
       <c r="A401" s="4">
         <v>44469</v>
       </c>
@@ -17001,7 +17007,7 @@
         <v>293059</v>
       </c>
       <c r="J401" s="5">
-        <v>3288</v>
+        <v>3287.9999999999995</v>
       </c>
       <c r="K401" s="5">
         <v>11439.3</v>
@@ -17013,7 +17019,7 @@
         <v>3219.5</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:13">
       <c r="A402" s="4">
         <v>44500</v>
       </c>
@@ -17054,7 +17060,7 @@
         <v>3528.2</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:13">
       <c r="A403" s="4">
         <v>44530</v>
       </c>
@@ -17083,7 +17089,7 @@
         <v>367427</v>
       </c>
       <c r="J403" s="5">
-        <v>3505</v>
+        <v>3505.0000000000005</v>
       </c>
       <c r="K403" s="5">
         <v>14103.8</v>
@@ -17095,7 +17101,7 @@
         <v>3754.6</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:13">
       <c r="A404" s="4">
         <v>44561</v>
       </c>
@@ -17124,7 +17130,7 @@
         <v>407136</v>
       </c>
       <c r="J404" s="5">
-        <v>3095</v>
+        <v>3095.0000000000005</v>
       </c>
       <c r="K404" s="5">
         <v>15457.3</v>
@@ -17136,7 +17142,7 @@
         <v>3943.9</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:13">
       <c r="A405" s="4">
         <v>44592</v>
       </c>
@@ -17150,7 +17156,7 @@
         <v>257</v>
       </c>
       <c r="E405" s="5">
-        <v>405</v>
+        <v>405.00000000000006</v>
       </c>
       <c r="F405" s="5">
         <v>156.85344799999999</v>
@@ -17177,7 +17183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:13">
       <c r="A406" s="4">
         <v>44620</v>
       </c>
@@ -17218,7 +17224,7 @@
         <v>556.29999999999995</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:13">
       <c r="A407" s="4">
         <v>44651</v>
       </c>
@@ -17259,7 +17265,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:13">
       <c r="A408" s="4">
         <v>44681</v>
       </c>
@@ -17273,7 +17279,7 @@
         <v>798</v>
       </c>
       <c r="E408" s="5">
-        <v>1518</v>
+        <v>1517.9999999999998</v>
       </c>
       <c r="F408" s="5">
         <v>498.69759099999999</v>
@@ -17300,7 +17306,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:13">
       <c r="A409" s="4">
         <v>44712</v>
       </c>
@@ -17311,7 +17317,7 @@
         <v>21671</v>
       </c>
       <c r="D409" s="5">
-        <v>998</v>
+        <v>997.99999999999989</v>
       </c>
       <c r="E409" s="5">
         <v>1845</v>
@@ -17341,7 +17347,7 @@
         <v>1146.2</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:13">
       <c r="A410" s="4">
         <v>44742</v>
       </c>
@@ -17382,7 +17388,7 @@
         <v>1357.8</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:13">
       <c r="A411" s="4">
         <v>44773</v>
       </c>
@@ -17423,7 +17429,7 @@
         <v>1605.1</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:13">
       <c r="A412" s="4">
         <v>44804</v>
       </c>
@@ -17464,7 +17470,7 @@
         <v>1891.6</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:13">
       <c r="A413" s="4">
         <v>44834</v>
       </c>
@@ -17493,7 +17499,7 @@
         <v>331565</v>
       </c>
       <c r="J413" s="5">
-        <v>3305</v>
+        <v>3304.9999999999995</v>
       </c>
       <c r="K413" s="5">
         <v>10956.9</v>
@@ -17505,7 +17511,7 @@
         <v>2138.1999999999998</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:13">
       <c r="A414" s="4">
         <v>44865</v>
       </c>
@@ -17519,7 +17525,7 @@
         <v>1991</v>
       </c>
       <c r="E414" s="5">
-        <v>3991</v>
+        <v>3991.0000000000005</v>
       </c>
       <c r="F414" s="5">
         <v>1233.8261379999999</v>
@@ -17546,7 +17552,7 @@
         <v>2381.6999999999998</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:13">
       <c r="A415" s="4">
         <v>44895</v>
       </c>
@@ -17587,7 +17593,7 @@
         <v>2681.5</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:13">
       <c r="A416" s="4">
         <v>44926</v>
       </c>
@@ -17616,7 +17622,7 @@
         <v>449584</v>
       </c>
       <c r="J416" s="5">
-        <v>3091</v>
+        <v>3091.0000000000005</v>
       </c>
       <c r="K416" s="5">
         <v>14535.6</v>
@@ -17628,7 +17634,7 @@
         <v>2949.1</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:13">
       <c r="A417" s="4">
         <v>44957</v>
       </c>
@@ -17639,7 +17645,7 @@
         <v>4333</v>
       </c>
       <c r="D417" s="5">
-        <v>242</v>
+        <v>241.99999999999997</v>
       </c>
       <c r="E417" s="5">
         <v>649</v>
@@ -17669,7 +17675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:13">
       <c r="A418" s="4">
         <v>44985</v>
       </c>
@@ -17710,7 +17716,7 @@
         <v>694.5</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:13">
       <c r="A419" s="4">
         <v>45016</v>
       </c>
@@ -17721,7 +17727,7 @@
         <v>13637</v>
       </c>
       <c r="D419" s="5">
-        <v>921</v>
+        <v>921.00000000000011</v>
       </c>
       <c r="E419" s="5">
         <v>1816</v>
@@ -17751,7 +17757,7 @@
         <v>1072.9000000000001</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:13">
       <c r="A420" s="4">
         <v>45046</v>
       </c>
@@ -17780,7 +17786,7 @@
         <v>152674</v>
       </c>
       <c r="J420" s="5">
-        <v>4068</v>
+        <v>4068.0000000000005</v>
       </c>
       <c r="K420" s="5">
         <v>5121.8</v>
@@ -17792,7 +17798,7 @@
         <v>1426.3</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:13">
       <c r="A421" s="4">
         <v>45077</v>
       </c>
@@ -17821,7 +17827,7 @@
         <v>191191</v>
       </c>
       <c r="J421" s="5">
-        <v>3958</v>
+        <v>3957.9999999999995</v>
       </c>
       <c r="K421" s="5">
         <v>6462.3</v>
@@ -17833,7 +17839,7 @@
         <v>1819.9</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:13">
       <c r="A422" s="4">
         <v>45107</v>
       </c>
@@ -17841,16 +17847,16 @@
         <v>10505.4908</v>
       </c>
       <c r="C422" s="5">
-        <v>28207.599999999999</v>
+        <v>28208.000000000004</v>
       </c>
       <c r="D422" s="5">
-        <v>2240.1</v>
+        <v>2240</v>
       </c>
       <c r="E422" s="5">
-        <v>3130.6</v>
+        <v>3131</v>
       </c>
       <c r="F422" s="5">
-        <v>0</v>
+        <v>787.39467100000002</v>
       </c>
       <c r="G422" s="5">
         <v>1154.9674</v>
@@ -17862,15 +17868,56 @@
         <v>230054</v>
       </c>
       <c r="J422" s="5">
-        <v>3987.1</v>
+        <v>3987.0000000000005</v>
       </c>
       <c r="K422" s="5">
-        <v>0</v>
+        <v>7789.2</v>
       </c>
       <c r="L422" s="5">
-        <v>0</v>
+        <v>10746.4</v>
       </c>
       <c r="M422" s="5">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="423" spans="1:13">
+      <c r="A423" s="4">
+        <v>45138</v>
+      </c>
+      <c r="B423" s="5">
+        <v>12237</v>
+      </c>
+      <c r="C423" s="5">
+        <v>32575.200000000001</v>
+      </c>
+      <c r="D423" s="5">
+        <v>2701.3</v>
+      </c>
+      <c r="E423" s="5">
+        <v>3661.6</v>
+      </c>
+      <c r="F423" s="5">
+        <v>0</v>
+      </c>
+      <c r="G423" s="5">
+        <v>1340</v>
+      </c>
+      <c r="H423" s="5">
+        <v>426710000</v>
+      </c>
+      <c r="I423" s="5">
+        <v>0</v>
+      </c>
+      <c r="J423" s="5">
+        <v>3926</v>
+      </c>
+      <c r="K423" s="5">
+        <v>0</v>
+      </c>
+      <c r="L423" s="5">
+        <v>0</v>
+      </c>
+      <c r="M423" s="5">
         <v>0</v>
       </c>
     </row>

--- a/data/fuel supply.xlsx
+++ b/data/fuel supply.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauri\Documents\RPackages\china_co2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F186025F-9CE6-474D-B240-E5F665C9F3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CB81F2-8681-46B1-BB55-D027E94E9AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Output_ Natural Crude Oil_ YTD" sheetId="1" r:id="rId1"/>
+    <sheet name="Output_Natural Crude Oil_YTD" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -48,7 +48,7 @@
             <sz val="9"/>
             <rFont val="宋体"/>
           </rPr>
-          <t>UEsDBBQACAgIAK1pD1cAAAAAAAAAAAAAAAABAAAAMM2Y7Y/URBjA77N/RdMvQnKTTGemM22/wR2nhJdDWEkMIWY683Svoduu7VS5kEs0gUAwkUtQv2CCRowao4KgvEQk8W9h9/C/cLovx8HtHWvgTvbLdp55e/p7XuaZHpjfP/PGzMzMORfOdovSzBV5krbd6JyrIZF1Zg7LvF3LNriRC7k76+q06mZy+UihG5HuHMx1qqRJi6YzrfZVyo1MWUPTeDvVsD+T+ZmhaGV2tEkrNRksdgeT7E4yywaSAxl0IDeVGyUyq+wKqqhzUy6vtzVUqkxH84abJCV8UEOultd31XaJNEmhHEsq2elmsN6CDJQBPdjxECwfTivjRqfcEipTlHBUdsAdLmv/6jw1bqOHboRamuavKupSNQ91t5HMN9LT6+LRNkbG2XCxsfLNWtW4e8PUMZoOmDK18E6dc9+3nXI+bQ8mkFk3hnaaDwe7XhiEmJCgUWvJ2gaOgypKbeedHikauScwJgJTYcdAPlTCXaxNtzaRc1SaupSZM1fWGpzFNIuc91rzg5HvNm9rd8D255gir9yBwWSuQa+/Bpw1pVSmJdsbTeBGbNZtl0XdHXSMxp4BaxaXcRV7WgqdYBF7nAR+SIivaEgTzlTo213yZ3XcpNvIOOv0hoo+vnext/qDuzL7ImKhjz3qvZAYoXwjsXdqaT3JLDtF4hzsNH5bTVBt57CFXkjDQPix9CWlvuCUYuwB92PKIKBPsZ0ssroD26v5UgQJxhSLaQgyspHg3FKay8iZoN9CmqfVEuhGRedYWehamcrZ01oCZ662mnaqN50TxqaVytjskjXPuZal3rvj2H1KREziAIWaEsRCTVDsEYWE1phTT/mEi6foH9/7uXftYfTk0bXelW/7X9z85+KVqH9ptXf1k/5v9/f0f7/bu3Db9vT+Or83Wrvz65Nfvul9/OdGc2xIDjtiD39bexw4+9rbIxaBBIAYxUnMEcMBQSERHiKc40R6SiolN9mjd/HBbtpjqgzjM+s5LJguPsZZ+i1ZTSLsdNIss6eg0/n79qvC7LEw0RTFWANiCfeQZEIjonnCfettWJHt3b5348e183/0b34+FdgHj9Z++rT/5f21W7enwGuPvGkSOGbeBLzPn3y7xlQQjqkXciRCIRCjOkaSSI4SIQVo8DxMkk1MHz/4/rWgadMLZdvQtElCQVWlebtx3GO2eCkyqDubyJpBYfgKaEqsWEh1ggCETcw08JHUhKGYaortK2mi+JY0P7tu4793+eve3e+a9hRMp4v7KVD6nmdja1Lcj1Eelx85c4W0Z3WrMHLnKwsZJhji0Ee2ELMpVXBho14JRCAgiWCaMqG2Ibl24UbUW71kAT7DsStLW3kftIoJHPDA35Wkij1BBaMT4E6u3ixlx+JzDqdtqwzsaCERxNySUAg49RHzE4lCHGIkfO6D4jwgsNlfn8moFnTvyuUnN1YHxB9e7X916XnUJOBcvDzpaa8UE8uJsRvbvFpkaQ477r+eohh4TJAHzLP+i21exZQhSgHHkoHNruFW/tu/9dBmgld69k8NL9wG3nwK9ma6KxcLnxAqMUiUxGFg8THf1lZAEPWZ1iEV3BewJb7rd/4vfP6kKB/jOwRlUcEu+F5AE5xwYc/0xIY2i6VAgS/tE/gUAgUs5FueQjaM/yM8y8CkHVgo7XInwBh72jYfTNQSqDMnZZbqsdqZrMxi3OBlw0ZrudsokDVSKD8cfKBpEBRxtVAWncElwqPY89hQaAv60uwzm+StYigKrKgxQBfKtNCj1btmoc6yYwORu7LyL1BLBwg3LV55OgUAAEwSAAA=</t>
+          <t>UEsDBBQACAgIAO5YL1cAAAAAAAAAAAAAAAABAAAAMM2Y7Y/URBjA77N/RdMvYnKTTGemM+1+gztOCSeHsJIYQsx05uleQ7dd26lyIZdoAoFgIpegfsEEjRg1RgVBeYlI4t/C7uF/4XTf7rjbO9bAneyX7TzTzjz9Pa/Tw/OHZl6bmZk578K5Tl6YuTyLk5bbOO9qiGWVmkWZtSrZArfhQubOujopO6lceTvXtUi3j2Q6UdIkeT2ZlAdL5TZMUUE9eCvRcCiV2dmRqCphscpk4TZimZawOjvctZmYFJY6/VXs1jJN+5LDKbQhM+Xw9llX5VVmipXxWEOpimT43GCLuIAPKsjUylgNbZdI4gSKkaSU7U4K4xGkoAzo/o5HYWUxKY3bOO0WUJq8gGOyDe5gWftXZYlxaz10LdTS1H9lXhWqvqg6tWS+lp4Zi4fbGBmlg8VGytdrlWMyG4/2JRZNG0yRWJqnz7vv20k5n7T6D5BZN4JWkg1udr0wCDEhwUithnsSYyIwFVYC2WBLd6kynco0nGPSVIVMnbmi0uAsJWnDea8537/z3frd7HrY/hyTZ6XbN4/MNOix0nDOFFKZpmxtBu422KzbKvKq058Y3nsWrBFcxlXkaSl0jEXkcRL4ISG+oiGNOVOhb3fJntVxm25DU4xZDRR9cv9Sd+0Hd3X2eXxCH3vU28KHUL6ZzzuVtF5iVpw8do60a58sJyiyd5BCL6RhIPxI+pJSX3BKMfaA+xFlENANSKfytGrD7mq+EC+CMcViwGvZBj+cAJUX9uVOn9lCkJHNBOeWk0w2nAn6LSRZUi6DrlV0jhe5rpQpnQPNZXDmKqtpu3zdOWlsDimNTSVpfZ1pWeg39hy7T4mISBSgUFOCWKgJijyikNAac+opn3Cxgf7J/Z+71x81nj6+3r36be+LW/9cutroXV7rXvuk99uDA73f73Uv3rEz3b8uvNFYv/vr01++6X7852ZzbAr8PbGHv6s9Dp975e0RiUACQISiOOKI4YCgkAgPEc5xLD0llZLb7NG99HA/7bE5n+xoD59Zz2HBdPExyslvynISYaedpKmtcE777zsvC7PHwlhTFGENiMXcQ5IJjYjmMfett2FFdnf77s0f1y/80bv1+VRgHz5e/+nT3pcP1m/fmQKvLWfPw9svcMybgHdrnds3poJwTL2QIxEKgRjVEZJEchQLKUCD52ESb2P65OH3rwRNm14o24WmTRIKyjLJWrXjHreNSZ5C1d5G1vS7wJdAU2LFQqpjBCBsYqaBj6QmDEVUU2xfSRPFd6T52Q0b/90rX3fvfVePp2A6XdxPgdL3PBtbk+J+hPKE/MiZy6Wt1c3cyL3vLGQYY4hCH9m2y6ZUwYWNeiUQgYDEgmnKhNqF5PrFm43u2mUL8BmOHVnYrvqIVUzggAf+viRV7AkqGJ0Ad3L3Zik7Fp+zmLSsMrCnjUQQcUtCIeDUR8yPJQpxiJHwuQ+K84DAdn99JqNa0N2rV57eXOsTf3St99XlrahJwLl4cdIbx4Xn5NdJ7cTIjW1ezdMkgz33X09RDDwiyAPmWf/FNq9iyhClgCPJwGbXcCf/7d1+ZDPBS639U8MLd4E3n4A9de7LwcInhEoMEsVRGFh8zLe9FRBEfaZ1SAX3BeyI78bd/wufPynKR/iOQpGXsA++F9AYx1zYmh7b0GaRFCjwpb0Cn0KggIV8xypkw/g/wrMMTNKGhcIudxKMsdW2/hiilkGdPSXTRI/UTmVplqIaLxsMmiudWoG0lkLxYf9rTI0gj8qFIm/3DxEexZ7HBkLb0BfmoNkmb+YDUWBFtQE6UCS5Hq7eMQtVmh7vi9zV1X8BUEsHCIkwEWhLBQAAORIAAA==</t>
         </r>
       </text>
     </comment>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -158,25 +158,25 @@
     <t>Time Period</t>
   </si>
   <si>
-    <t>1989-02:2023-07</t>
+    <t>1989-02:2023-08</t>
+  </si>
+  <si>
+    <t>1995-01:2023-08</t>
+  </si>
+  <si>
+    <t>2003-07:2023-08</t>
   </si>
   <si>
     <t>1995-01:2023-07</t>
   </si>
   <si>
-    <t>2003-07:2023-07</t>
-  </si>
-  <si>
-    <t>1995-01:2023-06</t>
+    <t>1989-01:2023-08</t>
   </si>
   <si>
     <t>1989-01:2023-07</t>
   </si>
   <si>
-    <t>1989-01:2023-06</t>
-  </si>
-  <si>
-    <t>1989-02:2023-06</t>
+    <t>1989-02:2023-07</t>
   </si>
   <si>
     <t>Source</t>
@@ -194,19 +194,16 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2023-08-15</t>
+    <t>2023-09-15</t>
   </si>
   <si>
-    <t>2023-08-08</t>
+    <t>2023-09-07</t>
   </si>
   <si>
-    <t>2023-07-25</t>
+    <t>2023-08-23</t>
   </si>
   <si>
-    <t>2023-07-17</t>
-  </si>
-  <si>
-    <t>2023-07-19</t>
+    <t>2023-08-16</t>
   </si>
 </sst>
 </file>
@@ -607,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M423"/>
+  <dimension ref="A1:M424"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -897,13 +894,13 @@
         <v>46</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -17885,39 +17882,80 @@
         <v>45138</v>
       </c>
       <c r="B423" s="5">
-        <v>12237</v>
+        <v>12236.6</v>
       </c>
       <c r="C423" s="5">
-        <v>32575.200000000001</v>
+        <v>32575.000000000004</v>
       </c>
       <c r="D423" s="5">
-        <v>2701.3</v>
+        <v>2701</v>
       </c>
       <c r="E423" s="5">
-        <v>3661.6</v>
+        <v>3662</v>
       </c>
       <c r="F423" s="5">
-        <v>0</v>
+        <v>929.86688300000003</v>
       </c>
       <c r="G423" s="5">
-        <v>1340</v>
+        <v>1340.4</v>
       </c>
       <c r="H423" s="5">
-        <v>426710000</v>
+        <v>426708000</v>
       </c>
       <c r="I423" s="5">
-        <v>0</v>
+        <v>267182</v>
       </c>
       <c r="J423" s="5">
         <v>3926</v>
       </c>
       <c r="K423" s="5">
-        <v>0</v>
+        <v>9224.2999999999993</v>
       </c>
       <c r="L423" s="5">
-        <v>0</v>
+        <v>12531.3</v>
       </c>
       <c r="M423" s="5">
+        <v>2713.7</v>
+      </c>
+    </row>
+    <row r="424" spans="1:13">
+      <c r="A424" s="4">
+        <v>45169</v>
+      </c>
+      <c r="B424" s="5">
+        <v>13984.799800000001</v>
+      </c>
+      <c r="C424" s="5">
+        <v>37855.4</v>
+      </c>
+      <c r="D424" s="5">
+        <v>3055</v>
+      </c>
+      <c r="E424" s="5">
+        <v>4250.7</v>
+      </c>
+      <c r="F424" s="5">
+        <v>0</v>
+      </c>
+      <c r="G424" s="5">
+        <v>1521.4662000000001</v>
+      </c>
+      <c r="H424" s="5">
+        <v>491401453</v>
+      </c>
+      <c r="I424" s="5">
+        <v>0</v>
+      </c>
+      <c r="J424" s="5">
+        <v>4433.2999999999993</v>
+      </c>
+      <c r="K424" s="5">
+        <v>0</v>
+      </c>
+      <c r="L424" s="5">
+        <v>0</v>
+      </c>
+      <c r="M424" s="5">
         <v>0</v>
       </c>
     </row>
